--- a/QuantLibXL/Data2/XLS/HKD/HKD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD/HKD_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19125" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19125" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -1462,8 +1462,8 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="15">
-          <cell r="K15" t="str">
+        <row r="13">
+          <cell r="D13" t="str">
             <v>HKDSTD#0000</v>
           </cell>
         </row>
@@ -1772,7 +1772,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1792,7 +1792,7 @@
     <row r="1" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="77" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Jul 20 2015 13:11:27</v>
+        <v>QuantLibXL 1.7.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Sep 24 2015 15:39:48</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D14" s="102" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>HKDYCSTD#0005</v>
+        <v>HKDYCSTD#0001</v>
       </c>
       <c r="E14" s="80"/>
       <c r="F14" s="122"/>
@@ -2154,7 +2154,7 @@
     <row r="26" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="78"/>
       <c r="C26" s="116" t="str">
-        <f>[1]Hibor!$K$15</f>
+        <f>[1]Hibor!$D$13</f>
         <v>HKDSTD#0000</v>
       </c>
       <c r="D26" s="90" t="b">
@@ -2217,7 +2217,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I2" sqref="I2:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2263,7 +2263,7 @@
     <row r="2" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="str">
         <f>Deposits!E3</f>
-        <v>obj_00138#0005</v>
+        <v>obj_00133#0001</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A2)</f>
@@ -2288,14 +2288,14 @@
         <v>42180</v>
       </c>
       <c r="I2" s="12">
-        <f>_xll.qlRateHelperLatestDate($A2,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A2,Trigger)</f>
         <v>42181</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
         <f>Deposits!E4</f>
-        <v>obj_0013f#0003</v>
+        <v>obj_00135#0001</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A3)</f>
@@ -2320,14 +2320,14 @@
         <v>42180</v>
       </c>
       <c r="I3" s="12">
-        <f>_xll.qlRateHelperLatestDate($A3,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A3,Trigger)</f>
         <v>42187</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="str">
         <f>Deposits!E5</f>
-        <v>obj_0013e#0003</v>
+        <v>obj_00138#0001</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A4)</f>
@@ -2352,14 +2352,14 @@
         <v>42180</v>
       </c>
       <c r="I4" s="12">
-        <f>_xll.qlRateHelperLatestDate($A4,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A4,Trigger)</f>
         <v>42194</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="str">
         <f>Deposits!E6</f>
-        <v>obj_00139#0003</v>
+        <v>obj_00139#0001</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A5)</f>
@@ -2384,14 +2384,14 @@
         <v>42180</v>
       </c>
       <c r="I5" s="12">
-        <f>_xll.qlRateHelperLatestDate($A5,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A5,Trigger)</f>
         <v>42212</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="str">
         <f>Deposits!E7</f>
-        <v>obj_0013d#0003</v>
+        <v>obj_00136#0001</v>
       </c>
       <c r="B6" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A6)</f>
@@ -2416,14 +2416,14 @@
         <v>42180</v>
       </c>
       <c r="I6" s="12">
-        <f>_xll.qlRateHelperLatestDate($A6,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A6,Trigger)</f>
         <v>42241</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="str">
         <f>Deposits!E8</f>
-        <v>obj_0013a#0003</v>
+        <v>obj_0013b#0001</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A7)</f>
@@ -2448,14 +2448,14 @@
         <v>42180</v>
       </c>
       <c r="I7" s="12">
-        <f>_xll.qlRateHelperLatestDate($A7,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A7,Trigger)</f>
         <v>42272</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="str">
         <f>Deposits!E9</f>
-        <v>obj_00140#0003</v>
+        <v>obj_0013a#0001</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A8)</f>
@@ -2480,14 +2480,14 @@
         <v>42180</v>
       </c>
       <c r="I8" s="12">
-        <f>_xll.qlRateHelperLatestDate($A8,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A8,Trigger)</f>
         <v>42366</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="str">
         <f>Deposits!E10</f>
-        <v>obj_0013c#0003</v>
+        <v>obj_00134#0001</v>
       </c>
       <c r="B9" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A9)</f>
@@ -2512,14 +2512,14 @@
         <v>42180</v>
       </c>
       <c r="I9" s="12">
-        <f>_xll.qlRateHelperLatestDate($A9,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A9,Trigger)</f>
         <v>42458</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="str">
         <f>Deposits!E11</f>
-        <v>obj_0013b#0003</v>
+        <v>obj_00137#0001</v>
       </c>
       <c r="B10" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(A10)</f>
@@ -2544,14 +2544,14 @@
         <v>42180</v>
       </c>
       <c r="I10" s="14">
-        <f>_xll.qlRateHelperLatestDate($A10,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A10,Trigger)</f>
         <v>42548</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="str">
         <f>Swaps!L6</f>
-        <v>obj_00127#0001</v>
+        <v>obj_00124#0001</v>
       </c>
       <c r="B11" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A11)</f>
@@ -2580,14 +2580,14 @@
         <v>42181</v>
       </c>
       <c r="I11" s="12">
-        <f>_xll.qlRateHelperLatestDate($A11,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A11,Trigger)</f>
         <v>42548</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="str">
         <f>Swaps!L7</f>
-        <v>obj_00130#0001</v>
+        <v>obj_00122#0001</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A12)</f>
@@ -2616,14 +2616,14 @@
         <v>42181</v>
       </c>
       <c r="I12" s="12">
-        <f>_xll.qlRateHelperLatestDate($A12,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A12,Trigger)</f>
         <v>42639</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="str">
         <f>Swaps!L8</f>
-        <v>obj_00128#0001</v>
+        <v>obj_00125#0001</v>
       </c>
       <c r="B13" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A13)</f>
@@ -2652,7 +2652,7 @@
         <v>42181</v>
       </c>
       <c r="I13" s="12">
-        <f>_xll.qlRateHelperLatestDate($A13,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A13,Trigger)</f>
         <v>42731</v>
       </c>
     </row>
@@ -2688,14 +2688,14 @@
         <v>42181</v>
       </c>
       <c r="I14" s="12">
-        <f>_xll.qlRateHelperLatestDate($A14,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A14,Trigger)</f>
         <v>42821</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="str">
         <f>Swaps!L10</f>
-        <v>obj_00136#0001</v>
+        <v>obj_00131#0001</v>
       </c>
       <c r="B15" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A15)</f>
@@ -2724,14 +2724,14 @@
         <v>42181</v>
       </c>
       <c r="I15" s="12">
-        <f>_xll.qlRateHelperLatestDate($A15,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A15,Trigger)</f>
         <v>42912</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="str">
         <f>Swaps!L11</f>
-        <v>obj_00134#0001</v>
+        <v>obj_00129#0001</v>
       </c>
       <c r="B16" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A16)</f>
@@ -2760,14 +2760,14 @@
         <v>42181</v>
       </c>
       <c r="I16" s="12">
-        <f>_xll.qlRateHelperLatestDate($A16,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A16,Trigger)</f>
         <v>43277</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="str">
         <f>Swaps!L12</f>
-        <v>obj_00131#0001</v>
+        <v>obj_0012e#0001</v>
       </c>
       <c r="B17" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A17)</f>
@@ -2796,14 +2796,14 @@
         <v>42181</v>
       </c>
       <c r="I17" s="12">
-        <f>_xll.qlRateHelperLatestDate($A17,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A17,Trigger)</f>
         <v>43642</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="str">
         <f>Swaps!L13</f>
-        <v>obj_00123#0001</v>
+        <v>obj_00127#0001</v>
       </c>
       <c r="B18" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A18)</f>
@@ -2832,14 +2832,14 @@
         <v>42181</v>
       </c>
       <c r="I18" s="12">
-        <f>_xll.qlRateHelperLatestDate($A18,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A18,Trigger)</f>
         <v>44008</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="str">
         <f>Swaps!L14</f>
-        <v>obj_00125#0001</v>
+        <v>obj_0011f#0001</v>
       </c>
       <c r="B19" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A19)</f>
@@ -2868,14 +2868,14 @@
         <v>42181</v>
       </c>
       <c r="I19" s="12">
-        <f>_xll.qlRateHelperLatestDate($A19,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A19,Trigger)</f>
         <v>44375</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="str">
         <f>Swaps!L15</f>
-        <v>obj_00137#0001</v>
+        <v>obj_00132#0001</v>
       </c>
       <c r="B20" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A20)</f>
@@ -2904,14 +2904,14 @@
         <v>42181</v>
       </c>
       <c r="I20" s="12">
-        <f>_xll.qlRateHelperLatestDate($A20,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A20,Trigger)</f>
         <v>44739</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="str">
         <f>Swaps!L16</f>
-        <v>obj_0012a#0001</v>
+        <v>obj_00128#0001</v>
       </c>
       <c r="B21" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A21)</f>
@@ -2940,14 +2940,14 @@
         <v>42181</v>
       </c>
       <c r="I21" s="12">
-        <f>_xll.qlRateHelperLatestDate($A21,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A21,Trigger)</f>
         <v>45103</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="str">
         <f>Swaps!L17</f>
-        <v>obj_0012d#0001</v>
+        <v>obj_00121#0001</v>
       </c>
       <c r="B22" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A22)</f>
@@ -2976,14 +2976,14 @@
         <v>42181</v>
       </c>
       <c r="I22" s="12">
-        <f>_xll.qlRateHelperLatestDate($A22,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A22,Trigger)</f>
         <v>45469</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="str">
         <f>Swaps!L18</f>
-        <v>obj_00122#0001</v>
+        <v>obj_0011d#0001</v>
       </c>
       <c r="B23" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A23)</f>
@@ -3012,14 +3012,14 @@
         <v>42181</v>
       </c>
       <c r="I23" s="12">
-        <f>_xll.qlRateHelperLatestDate($A23,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A23,Trigger)</f>
         <v>45834</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="str">
         <f>Swaps!L19</f>
-        <v>obj_00133#0001</v>
+        <v>obj_0012b#0001</v>
       </c>
       <c r="B24" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A24)</f>
@@ -3048,14 +3048,14 @@
         <v>42181</v>
       </c>
       <c r="I24" s="12">
-        <f>_xll.qlRateHelperLatestDate($A24,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A24,Trigger)</f>
         <v>46199</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="str">
         <f>Swaps!L20</f>
-        <v>obj_0012e#0001</v>
+        <v>obj_00123#0001</v>
       </c>
       <c r="B25" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A25)</f>
@@ -3084,14 +3084,14 @@
         <v>42181</v>
       </c>
       <c r="I25" s="12">
-        <f>_xll.qlRateHelperLatestDate($A25,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A25,Trigger)</f>
         <v>46566</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="str">
         <f>Swaps!L21</f>
-        <v>obj_00124#0001</v>
+        <v>obj_0012a#0001</v>
       </c>
       <c r="B26" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A26)</f>
@@ -3120,14 +3120,14 @@
         <v>42181</v>
       </c>
       <c r="I26" s="12">
-        <f>_xll.qlRateHelperLatestDate($A26,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A26,Trigger)</f>
         <v>46930</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="str">
         <f>Swaps!L22</f>
-        <v>obj_0012f#0001</v>
+        <v>obj_0012d#0001</v>
       </c>
       <c r="B27" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A27)</f>
@@ -3156,14 +3156,14 @@
         <v>42181</v>
       </c>
       <c r="I27" s="12">
-        <f>_xll.qlRateHelperLatestDate($A27,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A27,Trigger)</f>
         <v>47295</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="str">
         <f>Swaps!L23</f>
-        <v>obj_00121#0001</v>
+        <v>obj_0011c#0001</v>
       </c>
       <c r="B28" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A28)</f>
@@ -3192,14 +3192,14 @@
         <v>42181</v>
       </c>
       <c r="I28" s="12">
-        <f>_xll.qlRateHelperLatestDate($A28,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A28,Trigger)</f>
         <v>47660</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="str">
         <f>Swaps!L24</f>
-        <v>obj_0012b#0001</v>
+        <v>obj_0011e#0001</v>
       </c>
       <c r="B29" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A29)</f>
@@ -3228,14 +3228,14 @@
         <v>42181</v>
       </c>
       <c r="I29" s="12">
-        <f>_xll.qlRateHelperLatestDate($A29,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A29,Trigger)</f>
         <v>48025</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="str">
         <f>Swaps!L25</f>
-        <v>obj_00126#0001</v>
+        <v>obj_0012f#0001</v>
       </c>
       <c r="B30" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A30)</f>
@@ -3264,14 +3264,14 @@
         <v>42181</v>
       </c>
       <c r="I30" s="12">
-        <f>_xll.qlRateHelperLatestDate($A30,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A30,Trigger)</f>
         <v>48393</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="str">
         <f>Swaps!L26</f>
-        <v>obj_00129#0001</v>
+        <v>obj_00126#0001</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A31)</f>
@@ -3300,14 +3300,14 @@
         <v>42181</v>
       </c>
       <c r="I31" s="12">
-        <f>_xll.qlRateHelperLatestDate($A31,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A31,Trigger)</f>
         <v>48757</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="str">
         <f>Swaps!L27</f>
-        <v>obj_00132#0001</v>
+        <v>obj_00120#0001</v>
       </c>
       <c r="B32" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A32)</f>
@@ -3336,14 +3336,14 @@
         <v>42181</v>
       </c>
       <c r="I32" s="12">
-        <f>_xll.qlRateHelperLatestDate($A32,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A32,Trigger)</f>
         <v>49121</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="str">
         <f>Swaps!L28</f>
-        <v>obj_00135#0001</v>
+        <v>obj_00130#0001</v>
       </c>
       <c r="B33" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A33)</f>
@@ -3372,7 +3372,7 @@
         <v>42181</v>
       </c>
       <c r="I33" s="12">
-        <f>_xll.qlRateHelperLatestDate($A33,Trigger)</f>
+        <f>_xll.qlRateHelperPillarDate($A33,Trigger)</f>
         <v>49486</v>
       </c>
     </row>
@@ -3401,8 +3401,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="D2" s="21" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00140</v>
+        <v>obj_0013a</v>
       </c>
       <c r="E2" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -3473,7 +3473,7 @@
         <v>42180</v>
       </c>
       <c r="I2" s="28">
-        <f>_xll.qlRateHelperLatestDate($D2)</f>
+        <f>_xll.qlRateHelperPillarDate($D2)</f>
         <v>42366</v>
       </c>
       <c r="J2" s="18">
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="21" t="str">
-        <v>obj_00127</v>
+        <v>obj_00124</v>
       </c>
       <c r="E3" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -3508,7 +3508,7 @@
         <v>42181</v>
       </c>
       <c r="I3" s="28">
-        <f>_xll.qlRateHelperLatestDate($D3)</f>
+        <f>_xll.qlRateHelperPillarDate($D3)</f>
         <v>42548</v>
       </c>
       <c r="J3" s="18">
@@ -3524,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="21" t="str">
-        <v>obj_00128</v>
+        <v>obj_00125</v>
       </c>
       <c r="E4" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -3543,7 +3543,7 @@
         <v>42181</v>
       </c>
       <c r="I4" s="28">
-        <f>_xll.qlRateHelperLatestDate($D4)</f>
+        <f>_xll.qlRateHelperPillarDate($D4)</f>
         <v>42731</v>
       </c>
       <c r="J4" s="18">
@@ -3559,7 +3559,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="21" t="str">
-        <v>obj_00136</v>
+        <v>obj_00131</v>
       </c>
       <c r="E5" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -3578,7 +3578,7 @@
         <v>42181</v>
       </c>
       <c r="I5" s="28">
-        <f>_xll.qlRateHelperLatestDate($D5)</f>
+        <f>_xll.qlRateHelperPillarDate($D5)</f>
         <v>42912</v>
       </c>
       <c r="J5" s="18">
@@ -3590,7 +3590,7 @@
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
       <c r="D6" s="21" t="str">
-        <v>obj_00134</v>
+        <v>obj_00129</v>
       </c>
       <c r="E6" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -3609,7 +3609,7 @@
         <v>42181</v>
       </c>
       <c r="I6" s="28">
-        <f>_xll.qlRateHelperLatestDate($D6)</f>
+        <f>_xll.qlRateHelperPillarDate($D6)</f>
         <v>43277</v>
       </c>
       <c r="J6" s="18">
@@ -3619,7 +3619,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D7" s="21" t="str">
-        <v>obj_00131</v>
+        <v>obj_0012e</v>
       </c>
       <c r="E7" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -3638,7 +3638,7 @@
         <v>42181</v>
       </c>
       <c r="I7" s="28">
-        <f>_xll.qlRateHelperLatestDate($D7)</f>
+        <f>_xll.qlRateHelperPillarDate($D7)</f>
         <v>43642</v>
       </c>
       <c r="J7" s="18">
@@ -3648,7 +3648,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="21" t="str">
-        <v>obj_00123</v>
+        <v>obj_00127</v>
       </c>
       <c r="E8" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -3667,7 +3667,7 @@
         <v>42181</v>
       </c>
       <c r="I8" s="28">
-        <f>_xll.qlRateHelperLatestDate($D8)</f>
+        <f>_xll.qlRateHelperPillarDate($D8)</f>
         <v>44008</v>
       </c>
       <c r="J8" s="18">
@@ -3677,7 +3677,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="21" t="str">
-        <v>obj_00137</v>
+        <v>obj_00132</v>
       </c>
       <c r="E9" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -3696,7 +3696,7 @@
         <v>42181</v>
       </c>
       <c r="I9" s="28">
-        <f>_xll.qlRateHelperLatestDate($D9)</f>
+        <f>_xll.qlRateHelperPillarDate($D9)</f>
         <v>44739</v>
       </c>
       <c r="J9" s="18">
@@ -3706,7 +3706,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="21" t="str">
-        <v>obj_00122</v>
+        <v>obj_0011d</v>
       </c>
       <c r="E10" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -3725,7 +3725,7 @@
         <v>42181</v>
       </c>
       <c r="I10" s="28">
-        <f>_xll.qlRateHelperLatestDate($D10)</f>
+        <f>_xll.qlRateHelperPillarDate($D10)</f>
         <v>45834</v>
       </c>
       <c r="J10" s="18">
@@ -3735,7 +3735,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="21" t="str">
-        <v>obj_0012e</v>
+        <v>obj_00123</v>
       </c>
       <c r="E11" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -3754,7 +3754,7 @@
         <v>42181</v>
       </c>
       <c r="I11" s="28">
-        <f>_xll.qlRateHelperLatestDate($D11)</f>
+        <f>_xll.qlRateHelperPillarDate($D11)</f>
         <v>46566</v>
       </c>
       <c r="J11" s="18">
@@ -3764,7 +3764,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="21" t="str">
-        <v>obj_00121</v>
+        <v>obj_0011c</v>
       </c>
       <c r="E12" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -3783,7 +3783,7 @@
         <v>42181</v>
       </c>
       <c r="I12" s="28">
-        <f>_xll.qlRateHelperLatestDate($D12)</f>
+        <f>_xll.qlRateHelperPillarDate($D12)</f>
         <v>47660</v>
       </c>
       <c r="J12" s="18">
@@ -3793,7 +3793,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="21" t="str">
-        <v>obj_00135</v>
+        <v>obj_00130</v>
       </c>
       <c r="E13" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -3812,7 +3812,7 @@
         <v>42181</v>
       </c>
       <c r="I13" s="28">
-        <f>_xll.qlRateHelperLatestDate($D13)</f>
+        <f>_xll.qlRateHelperPillarDate($D13)</f>
         <v>49486</v>
       </c>
       <c r="J13" s="18">
@@ -3841,7 +3841,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I14" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D14)</f>
+        <f>_xll.qlRateHelperPillarDate($D14)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J14" s="18" t="e">
@@ -3869,7 +3869,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I15" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D15)</f>
+        <f>_xll.qlRateHelperPillarDate($D15)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J15" s="18" t="e">
@@ -3897,7 +3897,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I16" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D16)</f>
+        <f>_xll.qlRateHelperPillarDate($D16)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J16" s="18" t="e">
@@ -3925,7 +3925,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I17" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D17)</f>
+        <f>_xll.qlRateHelperPillarDate($D17)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J17" s="18" t="e">
@@ -3953,7 +3953,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I18" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D18)</f>
+        <f>_xll.qlRateHelperPillarDate($D18)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J18" s="18" t="e">
@@ -3981,7 +3981,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I19" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D19)</f>
+        <f>_xll.qlRateHelperPillarDate($D19)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J19" s="18" t="e">
@@ -4009,7 +4009,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I20" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D20)</f>
+        <f>_xll.qlRateHelperPillarDate($D20)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J20" s="18" t="e">
@@ -4037,7 +4037,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I21" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D21)</f>
+        <f>_xll.qlRateHelperPillarDate($D21)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J21" s="18" t="e">
@@ -4065,7 +4065,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I22" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D22)</f>
+        <f>_xll.qlRateHelperPillarDate($D22)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J22" s="18" t="e">
@@ -4093,7 +4093,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I23" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D23)</f>
+        <f>_xll.qlRateHelperPillarDate($D23)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J23" s="18" t="e">
@@ -4121,7 +4121,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I24" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D24)</f>
+        <f>_xll.qlRateHelperPillarDate($D24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J24" s="18" t="e">
@@ -4149,7 +4149,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I25" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D25)</f>
+        <f>_xll.qlRateHelperPillarDate($D25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J25" s="18" t="e">
@@ -4177,7 +4177,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I26" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D26)</f>
+        <f>_xll.qlRateHelperPillarDate($D26)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J26" s="18" t="e">
@@ -4205,7 +4205,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I27" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D27)</f>
+        <f>_xll.qlRateHelperPillarDate($D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J27" s="18" t="e">
@@ -4233,7 +4233,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I28" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D28)</f>
+        <f>_xll.qlRateHelperPillarDate($D28)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J28" s="18" t="e">
@@ -4261,7 +4261,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I29" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D29)</f>
+        <f>_xll.qlRateHelperPillarDate($D29)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J29" s="18" t="e">
@@ -4289,7 +4289,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D30)</f>
+        <f>_xll.qlRateHelperPillarDate($D30)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J30" s="18" t="e">
@@ -4317,7 +4317,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I31" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D31)</f>
+        <f>_xll.qlRateHelperPillarDate($D31)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J31" s="18" t="e">
@@ -4345,7 +4345,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D32)</f>
+        <f>_xll.qlRateHelperPillarDate($D32)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J32" s="18" t="e">
@@ -4373,7 +4373,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D33)</f>
+        <f>_xll.qlRateHelperPillarDate($D33)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J33" s="18" t="e">
@@ -4401,7 +4401,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I34" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D34)</f>
+        <f>_xll.qlRateHelperPillarDate($D34)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J34" s="18" t="e">
@@ -4429,7 +4429,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I35" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D35)</f>
+        <f>_xll.qlRateHelperPillarDate($D35)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J35" s="18" t="e">
@@ -4457,7 +4457,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I36" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D36)</f>
+        <f>_xll.qlRateHelperPillarDate($D36)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J36" s="18" t="e">
@@ -4485,7 +4485,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I37" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D37)</f>
+        <f>_xll.qlRateHelperPillarDate($D37)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J37" s="18" t="e">
@@ -4513,7 +4513,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I38" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D38)</f>
+        <f>_xll.qlRateHelperPillarDate($D38)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J38" s="18" t="e">
@@ -4541,7 +4541,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I39" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D39)</f>
+        <f>_xll.qlRateHelperPillarDate($D39)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J39" s="18" t="e">
@@ -4569,7 +4569,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I40" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D40)</f>
+        <f>_xll.qlRateHelperPillarDate($D40)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J40" s="18" t="e">
@@ -4597,7 +4597,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I41" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D41)</f>
+        <f>_xll.qlRateHelperPillarDate($D41)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J41" s="18" t="e">
@@ -4625,7 +4625,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I42" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D42)</f>
+        <f>_xll.qlRateHelperPillarDate($D42)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J42" s="18" t="e">
@@ -4653,7 +4653,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I43" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D43)</f>
+        <f>_xll.qlRateHelperPillarDate($D43)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J43" s="18" t="e">
@@ -4681,7 +4681,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I44" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D44)</f>
+        <f>_xll.qlRateHelperPillarDate($D44)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J44" s="18" t="e">
@@ -4709,7 +4709,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I45" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D45)</f>
+        <f>_xll.qlRateHelperPillarDate($D45)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J45" s="18" t="e">
@@ -4737,7 +4737,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I46" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D46)</f>
+        <f>_xll.qlRateHelperPillarDate($D46)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J46" s="18" t="e">
@@ -4765,7 +4765,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I47" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D47)</f>
+        <f>_xll.qlRateHelperPillarDate($D47)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J47" s="18" t="e">
@@ -4793,7 +4793,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I48" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D48)</f>
+        <f>_xll.qlRateHelperPillarDate($D48)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J48" s="18" t="e">
@@ -4821,7 +4821,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I49" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D49)</f>
+        <f>_xll.qlRateHelperPillarDate($D49)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J49" s="18" t="e">
@@ -4849,7 +4849,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I50" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D50)</f>
+        <f>_xll.qlRateHelperPillarDate($D50)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J50" s="18" t="e">
@@ -4877,7 +4877,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I51" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D51)</f>
+        <f>_xll.qlRateHelperPillarDate($D51)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J51" s="18" t="e">
@@ -4905,7 +4905,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I52" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D52)</f>
+        <f>_xll.qlRateHelperPillarDate($D52)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J52" s="18" t="e">
@@ -4933,7 +4933,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I53" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D53)</f>
+        <f>_xll.qlRateHelperPillarDate($D53)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J53" s="18" t="e">
@@ -4961,7 +4961,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I54" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D54)</f>
+        <f>_xll.qlRateHelperPillarDate($D54)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J54" s="18" t="e">
@@ -4989,7 +4989,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I55" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D55)</f>
+        <f>_xll.qlRateHelperPillarDate($D55)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J55" s="18" t="e">
@@ -5017,7 +5017,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I56" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D56)</f>
+        <f>_xll.qlRateHelperPillarDate($D56)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J56" s="18" t="e">
@@ -5045,7 +5045,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I57" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D57)</f>
+        <f>_xll.qlRateHelperPillarDate($D57)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J57" s="18" t="e">
@@ -5073,7 +5073,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I58" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D58)</f>
+        <f>_xll.qlRateHelperPillarDate($D58)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J58" s="18" t="e">
@@ -5101,7 +5101,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I59" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D59)</f>
+        <f>_xll.qlRateHelperPillarDate($D59)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J59" s="18" t="e">
@@ -5129,7 +5129,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I60" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D60)</f>
+        <f>_xll.qlRateHelperPillarDate($D60)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J60" s="18" t="e">
@@ -5157,7 +5157,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I61" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D61)</f>
+        <f>_xll.qlRateHelperPillarDate($D61)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J61" s="18" t="e">
@@ -5185,7 +5185,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I62" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D62)</f>
+        <f>_xll.qlRateHelperPillarDate($D62)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J62" s="18" t="e">
@@ -5213,7 +5213,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I63" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D63)</f>
+        <f>_xll.qlRateHelperPillarDate($D63)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J63" s="18" t="e">
@@ -5241,7 +5241,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I64" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D64)</f>
+        <f>_xll.qlRateHelperPillarDate($D64)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J64" s="18" t="e">
@@ -5269,7 +5269,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I65" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D65)</f>
+        <f>_xll.qlRateHelperPillarDate($D65)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J65" s="18" t="e">
@@ -5297,7 +5297,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I66" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D66)</f>
+        <f>_xll.qlRateHelperPillarDate($D66)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J66" s="18" t="e">
@@ -5325,7 +5325,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I67" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D67)</f>
+        <f>_xll.qlRateHelperPillarDate($D67)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J67" s="18" t="e">
@@ -5353,7 +5353,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I68" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D68)</f>
+        <f>_xll.qlRateHelperPillarDate($D68)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J68" s="18" t="e">
@@ -5381,7 +5381,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I69" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D69)</f>
+        <f>_xll.qlRateHelperPillarDate($D69)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J69" s="18" t="e">
@@ -5409,7 +5409,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I70" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D70)</f>
+        <f>_xll.qlRateHelperPillarDate($D70)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J70" s="18" t="e">
@@ -5437,7 +5437,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I71" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D71)</f>
+        <f>_xll.qlRateHelperPillarDate($D71)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J71" s="18" t="e">
@@ -5465,7 +5465,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I72" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D72)</f>
+        <f>_xll.qlRateHelperPillarDate($D72)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J72" s="18" t="e">
@@ -5493,7 +5493,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I73" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D73)</f>
+        <f>_xll.qlRateHelperPillarDate($D73)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J73" s="18" t="e">
@@ -5521,7 +5521,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I74" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D74)</f>
+        <f>_xll.qlRateHelperPillarDate($D74)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J74" s="18" t="e">
@@ -5549,7 +5549,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I75" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D75)</f>
+        <f>_xll.qlRateHelperPillarDate($D75)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J75" s="18" t="e">
@@ -5577,7 +5577,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I76" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D76)</f>
+        <f>_xll.qlRateHelperPillarDate($D76)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J76" s="18" t="e">
@@ -5605,7 +5605,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I77" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D77)</f>
+        <f>_xll.qlRateHelperPillarDate($D77)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J77" s="18" t="e">
@@ -5633,7 +5633,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I78" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D78)</f>
+        <f>_xll.qlRateHelperPillarDate($D78)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J78" s="18" t="e">
@@ -5661,7 +5661,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I79" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D79)</f>
+        <f>_xll.qlRateHelperPillarDate($D79)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J79" s="18" t="e">
@@ -5689,7 +5689,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D80)</f>
+        <f>_xll.qlRateHelperPillarDate($D80)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="18" t="e">
@@ -5717,7 +5717,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I81" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D81)</f>
+        <f>_xll.qlRateHelperPillarDate($D81)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J81" s="18" t="e">
@@ -5745,7 +5745,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I82" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D82)</f>
+        <f>_xll.qlRateHelperPillarDate($D82)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J82" s="18" t="e">
@@ -5773,7 +5773,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I83" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D83)</f>
+        <f>_xll.qlRateHelperPillarDate($D83)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J83" s="18" t="e">
@@ -5801,7 +5801,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I84" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D84)</f>
+        <f>_xll.qlRateHelperPillarDate($D84)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J84" s="18" t="e">
@@ -5829,7 +5829,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I85" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D85)</f>
+        <f>_xll.qlRateHelperPillarDate($D85)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J85" s="18" t="e">
@@ -5857,7 +5857,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I86" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D86)</f>
+        <f>_xll.qlRateHelperPillarDate($D86)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J86" s="18" t="e">
@@ -5885,7 +5885,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I87" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D87)</f>
+        <f>_xll.qlRateHelperPillarDate($D87)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J87" s="18" t="e">
@@ -5913,7 +5913,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I88" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D88)</f>
+        <f>_xll.qlRateHelperPillarDate($D88)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J88" s="18" t="e">
@@ -5941,7 +5941,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I89" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D89)</f>
+        <f>_xll.qlRateHelperPillarDate($D89)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J89" s="18" t="e">
@@ -5969,7 +5969,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I90" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D90)</f>
+        <f>_xll.qlRateHelperPillarDate($D90)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J90" s="18" t="e">
@@ -5997,7 +5997,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I91" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D91)</f>
+        <f>_xll.qlRateHelperPillarDate($D91)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J91" s="18" t="e">
@@ -6025,7 +6025,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I92" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D92)</f>
+        <f>_xll.qlRateHelperPillarDate($D92)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J92" s="18" t="e">
@@ -6053,7 +6053,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I93" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D93)</f>
+        <f>_xll.qlRateHelperPillarDate($D93)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J93" s="18" t="e">
@@ -6081,7 +6081,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I94" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D94)</f>
+        <f>_xll.qlRateHelperPillarDate($D94)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J94" s="18" t="e">
@@ -6109,7 +6109,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I95" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D95)</f>
+        <f>_xll.qlRateHelperPillarDate($D95)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J95" s="18" t="e">
@@ -6137,7 +6137,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I96" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D96)</f>
+        <f>_xll.qlRateHelperPillarDate($D96)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J96" s="18" t="e">
@@ -6165,7 +6165,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I97" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D97)</f>
+        <f>_xll.qlRateHelperPillarDate($D97)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J97" s="18" t="e">
@@ -6193,7 +6193,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I98" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D98)</f>
+        <f>_xll.qlRateHelperPillarDate($D98)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J98" s="18" t="e">
@@ -6221,7 +6221,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I99" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D99)</f>
+        <f>_xll.qlRateHelperPillarDate($D99)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J99" s="18" t="e">
@@ -6249,7 +6249,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I100" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D100)</f>
+        <f>_xll.qlRateHelperPillarDate($D100)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J100" s="18" t="e">
@@ -6277,7 +6277,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I101" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D101)</f>
+        <f>_xll.qlRateHelperPillarDate($D101)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J101" s="18" t="e">
@@ -6305,7 +6305,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I102" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D102)</f>
+        <f>_xll.qlRateHelperPillarDate($D102)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J102" s="18" t="e">
@@ -6333,7 +6333,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I103" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D103)</f>
+        <f>_xll.qlRateHelperPillarDate($D103)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J103" s="18" t="e">
@@ -6361,7 +6361,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I104" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D104)</f>
+        <f>_xll.qlRateHelperPillarDate($D104)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J104" s="18" t="e">
@@ -6389,7 +6389,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I105" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D105)</f>
+        <f>_xll.qlRateHelperPillarDate($D105)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J105" s="18" t="e">
@@ -6417,7 +6417,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I106" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D106)</f>
+        <f>_xll.qlRateHelperPillarDate($D106)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J106" s="18" t="e">
@@ -6445,7 +6445,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I107" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D107)</f>
+        <f>_xll.qlRateHelperPillarDate($D107)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J107" s="18" t="e">
@@ -6473,7 +6473,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I108" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D108)</f>
+        <f>_xll.qlRateHelperPillarDate($D108)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J108" s="18" t="e">
@@ -6501,7 +6501,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I109" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D109)</f>
+        <f>_xll.qlRateHelperPillarDate($D109)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J109" s="18" t="e">
@@ -6529,7 +6529,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I110" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D110)</f>
+        <f>_xll.qlRateHelperPillarDate($D110)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J110" s="18" t="e">
@@ -6557,7 +6557,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I111" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D111)</f>
+        <f>_xll.qlRateHelperPillarDate($D111)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J111" s="18" t="e">
@@ -6585,7 +6585,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I112" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D112)</f>
+        <f>_xll.qlRateHelperPillarDate($D112)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J112" s="18" t="e">
@@ -6613,7 +6613,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I113" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D113)</f>
+        <f>_xll.qlRateHelperPillarDate($D113)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J113" s="18" t="e">
@@ -6641,7 +6641,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I114" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D114)</f>
+        <f>_xll.qlRateHelperPillarDate($D114)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J114" s="18" t="e">
@@ -6669,7 +6669,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I115" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D115)</f>
+        <f>_xll.qlRateHelperPillarDate($D115)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J115" s="18" t="e">
@@ -6697,7 +6697,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I116" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D116)</f>
+        <f>_xll.qlRateHelperPillarDate($D116)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J116" s="18" t="e">
@@ -6725,7 +6725,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I117" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D117)</f>
+        <f>_xll.qlRateHelperPillarDate($D117)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J117" s="18" t="e">
@@ -6753,7 +6753,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I118" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D118)</f>
+        <f>_xll.qlRateHelperPillarDate($D118)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J118" s="18" t="e">
@@ -6781,7 +6781,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I119" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D119)</f>
+        <f>_xll.qlRateHelperPillarDate($D119)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J119" s="18" t="e">
@@ -6809,7 +6809,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I120" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D120)</f>
+        <f>_xll.qlRateHelperPillarDate($D120)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J120" s="18" t="e">
@@ -6837,7 +6837,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I121" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D121)</f>
+        <f>_xll.qlRateHelperPillarDate($D121)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J121" s="18" t="e">
@@ -6865,7 +6865,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I122" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D122)</f>
+        <f>_xll.qlRateHelperPillarDate($D122)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J122" s="18" t="e">
@@ -6893,7 +6893,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I123" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D123)</f>
+        <f>_xll.qlRateHelperPillarDate($D123)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J123" s="18" t="e">
@@ -6921,7 +6921,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I124" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D124)</f>
+        <f>_xll.qlRateHelperPillarDate($D124)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J124" s="18" t="e">
@@ -6949,7 +6949,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I125" s="28" t="e">
-        <f>_xll.qlRateHelperLatestDate($D125)</f>
+        <f>_xll.qlRateHelperPillarDate($D125)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J125" s="18" t="e">
@@ -6977,7 +6977,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I126" s="30" t="e">
-        <f>_xll.qlRateHelperLatestDate($D126)</f>
+        <f>_xll.qlRateHelperPillarDate($D126)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J126" s="18" t="e">
@@ -7068,12 +7068,12 @@
         <v>HkdHiborON</v>
       </c>
       <c r="D3" s="38" t="str">
-        <f>Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" ref="D3:D11" si="1">Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
         <v>HKDOND_Quote</v>
       </c>
       <c r="E3" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00138#0005</v>
+        <v>obj_00133#0001</v>
       </c>
       <c r="F3" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -7093,12 +7093,12 @@
         <v>HkdHiborSW</v>
       </c>
       <c r="D4" s="38" t="str">
-        <f>Currency&amp;$B4&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKDSWD_Quote</v>
       </c>
       <c r="E4" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013f#0003</v>
+        <v>obj_00135#0001</v>
       </c>
       <c r="F4" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -7118,12 +7118,12 @@
         <v>HkdHibor2W</v>
       </c>
       <c r="D5" s="38" t="str">
-        <f>Currency&amp;$B5&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKD2WD_Quote</v>
       </c>
       <c r="E5" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013e#0003</v>
+        <v>obj_00138#0001</v>
       </c>
       <c r="F5" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -7143,12 +7143,12 @@
         <v>HkdHibor1M</v>
       </c>
       <c r="D6" s="38" t="str">
-        <f>Currency&amp;$B6&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKD1MD_Quote</v>
       </c>
       <c r="E6" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00139#0003</v>
+        <v>obj_00139#0001</v>
       </c>
       <c r="F6" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -7168,12 +7168,12 @@
         <v>HkdHibor2M</v>
       </c>
       <c r="D7" s="38" t="str">
-        <f>Currency&amp;$B7&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKD2MD_Quote</v>
       </c>
       <c r="E7" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013d#0003</v>
+        <v>obj_00136#0001</v>
       </c>
       <c r="F7" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -7193,12 +7193,12 @@
         <v>HkdHibor3M</v>
       </c>
       <c r="D8" s="38" t="str">
-        <f>Currency&amp;$B8&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKD3MD_Quote</v>
       </c>
       <c r="E8" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013a#0003</v>
+        <v>obj_0013b#0001</v>
       </c>
       <c r="F8" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -7218,12 +7218,12 @@
         <v>HkdHibor6M</v>
       </c>
       <c r="D9" s="38" t="str">
-        <f>Currency&amp;$B9&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKD6MD_Quote</v>
       </c>
       <c r="E9" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00140#0003</v>
+        <v>obj_0013a#0001</v>
       </c>
       <c r="F9" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -7243,12 +7243,12 @@
         <v>HkdHibor9M</v>
       </c>
       <c r="D10" s="38" t="str">
-        <f>Currency&amp;$B10&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKD9MD_Quote</v>
       </c>
       <c r="E10" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013c#0003</v>
+        <v>obj_00134#0001</v>
       </c>
       <c r="F10" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -7268,12 +7268,12 @@
         <v>HkdHibor1Y</v>
       </c>
       <c r="D11" s="38" t="str">
-        <f>Currency&amp;$B11&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKD1YD_Quote</v>
       </c>
       <c r="E11" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013b#0003</v>
+        <v>obj_00137#0001</v>
       </c>
       <c r="F11" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -7308,7 +7308,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L6" sqref="L6:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7441,7 +7441,7 @@
       <c r="K4" s="48"/>
       <c r="L4" s="63" t="str">
         <f>_xll.qlIborIndex(,FamilyName,J2,P4,Currency,Q4,R4,S4,T4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00120#0001</v>
+        <v>obj_0011b#0001</v>
       </c>
       <c r="M4" s="64" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -7519,8 +7519,8 @@
         <v>HKDQM3H1Y_Quote</v>
       </c>
       <c r="L6" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K6,$B6,$D6,Calendar,$G6,$H6,$I6,$L$4,$J6,C6&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00127#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K6,$B6,$D6,Calendar,$G6,$H6,$I6,$L$4,$J6,C6&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00124#0001</v>
       </c>
       <c r="M6" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -7565,8 +7565,8 @@
         <v>HKDQM3H15M_Quote</v>
       </c>
       <c r="L7" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K7,$B7,$D7,Calendar,$G7,$H7,$I7,$L$4,$J7,C7&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00130#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K7,$B7,$D7,Calendar,$G7,$H7,$I7,$L$4,$J7,C7&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00122#0001</v>
       </c>
       <c r="M7" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -7611,8 +7611,8 @@
         <v>HKDQM3H18M_Quote</v>
       </c>
       <c r="L8" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K8,$B8,$D8,Calendar,$G8,$H8,$I8,$L$4,$J8,C8&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00128#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K8,$B8,$D8,Calendar,$G8,$H8,$I8,$L$4,$J8,C8&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00125#0001</v>
       </c>
       <c r="M8" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -7657,7 +7657,7 @@
         <v>HKDQM3H21M_Quote</v>
       </c>
       <c r="L9" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K9,$B9,$D9,Calendar,$G9,$H9,$I9,$L$4,$J9,C9&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(,$K9,$B9,$D9,Calendar,$G9,$H9,$I9,$L$4,$J9,C9&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
         <v>obj_0012c#0001</v>
       </c>
       <c r="M9" s="61" t="str">
@@ -7703,8 +7703,8 @@
         <v>HKDQM3H2Y_Quote</v>
       </c>
       <c r="L10" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K10,$B10,$D10,Calendar,$G10,$H10,$I10,$L$4,$J10,C10&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00136#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K10,$B10,$D10,Calendar,$G10,$H10,$I10,$L$4,$J10,C10&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00131#0001</v>
       </c>
       <c r="M10" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -7749,8 +7749,8 @@
         <v>HKDQM3H3Y_Quote</v>
       </c>
       <c r="L11" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K11,$B11,$D11,Calendar,$G11,$H11,$I11,$L$4,$J11,C11&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00134#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K11,$B11,$D11,Calendar,$G11,$H11,$I11,$L$4,$J11,C11&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00129#0001</v>
       </c>
       <c r="M11" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -7795,8 +7795,8 @@
         <v>HKDQM3H4Y_Quote</v>
       </c>
       <c r="L12" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K12,$B12,$D12,Calendar,$G12,$H12,$I12,$L$4,$J12,C12&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00131#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K12,$B12,$D12,Calendar,$G12,$H12,$I12,$L$4,$J12,C12&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0012e#0001</v>
       </c>
       <c r="M12" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -7841,8 +7841,8 @@
         <v>HKDQM3H5Y_Quote</v>
       </c>
       <c r="L13" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K13,$B13,$D13,Calendar,$G13,$H13,$I13,$L$4,$J13,C13&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00123#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K13,$B13,$D13,Calendar,$G13,$H13,$I13,$L$4,$J13,C13&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00127#0001</v>
       </c>
       <c r="M13" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -7887,8 +7887,8 @@
         <v>HKDQM3H6Y_Quote</v>
       </c>
       <c r="L14" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K14,$B14,$D14,Calendar,$G14,$H14,$I14,$L$4,$J14,C14&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00125#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K14,$B14,$D14,Calendar,$G14,$H14,$I14,$L$4,$J14,C14&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0011f#0001</v>
       </c>
       <c r="M14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -7933,8 +7933,8 @@
         <v>HKDQM3H7Y_Quote</v>
       </c>
       <c r="L15" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K15,$B15,$D15,Calendar,$G15,$H15,$I15,$L$4,$J15,C15&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00137#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K15,$B15,$D15,Calendar,$G15,$H15,$I15,$L$4,$J15,C15&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00132#0001</v>
       </c>
       <c r="M15" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -7979,8 +7979,8 @@
         <v>HKDQM3H8Y_Quote</v>
       </c>
       <c r="L16" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K16,$B16,$D16,Calendar,$G16,$H16,$I16,$L$4,$J16,C16&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0012a#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K16,$B16,$D16,Calendar,$G16,$H16,$I16,$L$4,$J16,C16&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00128#0001</v>
       </c>
       <c r="M16" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -8025,8 +8025,8 @@
         <v>HKDQM3H9Y_Quote</v>
       </c>
       <c r="L17" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K17,$B17,$D17,Calendar,$G17,$H17,$I17,$L$4,$J17,C17&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0012d#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K17,$B17,$D17,Calendar,$G17,$H17,$I17,$L$4,$J17,C17&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00121#0001</v>
       </c>
       <c r="M17" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -8071,8 +8071,8 @@
         <v>HKDQM3H10Y_Quote</v>
       </c>
       <c r="L18" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K18,$B18,$D18,Calendar,$G18,$H18,$I18,$L$4,$J18,C18&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00122#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K18,$B18,$D18,Calendar,$G18,$H18,$I18,$L$4,$J18,C18&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0011d#0001</v>
       </c>
       <c r="M18" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -8117,8 +8117,8 @@
         <v>HKDQM3H11Y_Quote</v>
       </c>
       <c r="L19" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K19,$B19,$D19,Calendar,$G19,$H19,$I19,$L$4,$J19,C19&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00133#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K19,$B19,$D19,Calendar,$G19,$H19,$I19,$L$4,$J19,C19&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0012b#0001</v>
       </c>
       <c r="M19" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -8163,8 +8163,8 @@
         <v>HKDQM3H12Y_Quote</v>
       </c>
       <c r="L20" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K20,$B20,$D20,Calendar,$G20,$H20,$I20,$L$4,$J20,C20&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0012e#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K20,$B20,$D20,Calendar,$G20,$H20,$I20,$L$4,$J20,C20&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00123#0001</v>
       </c>
       <c r="M20" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -8209,8 +8209,8 @@
         <v>HKDQM3H13Y_Quote</v>
       </c>
       <c r="L21" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K21,$B21,$D21,Calendar,$G21,$H21,$I21,$L$4,$J21,C21&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00124#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K21,$B21,$D21,Calendar,$G21,$H21,$I21,$L$4,$J21,C21&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0012a#0001</v>
       </c>
       <c r="M21" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -8255,8 +8255,8 @@
         <v>HKDQM3H14Y_Quote</v>
       </c>
       <c r="L22" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K22,$B22,$D22,Calendar,$G22,$H22,$I22,$L$4,$J22,C22&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0012f#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K22,$B22,$D22,Calendar,$G22,$H22,$I22,$L$4,$J22,C22&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0012d#0001</v>
       </c>
       <c r="M22" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -8301,8 +8301,8 @@
         <v>HKDQM3H15Y_Quote</v>
       </c>
       <c r="L23" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K23,$B23,$D23,Calendar,$G23,$H23,$I23,$L$4,$J23,C23&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00121#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K23,$B23,$D23,Calendar,$G23,$H23,$I23,$L$4,$J23,C23&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0011c#0001</v>
       </c>
       <c r="M23" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -8347,8 +8347,8 @@
         <v>HKDQM3H16Y_Quote</v>
       </c>
       <c r="L24" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K24,$B24,$D24,Calendar,$G24,$H24,$I24,$L$4,$J24,C24&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0012b#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K24,$B24,$D24,Calendar,$G24,$H24,$I24,$L$4,$J24,C24&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0011e#0001</v>
       </c>
       <c r="M24" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -8393,8 +8393,8 @@
         <v>HKDQM3H17Y_Quote</v>
       </c>
       <c r="L25" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K25,$B25,$D25,Calendar,$G25,$H25,$I25,$L$4,$J25,C25&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00126#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K25,$B25,$D25,Calendar,$G25,$H25,$I25,$L$4,$J25,C25&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0012f#0001</v>
       </c>
       <c r="M25" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -8439,8 +8439,8 @@
         <v>HKDQM3H18Y_Quote</v>
       </c>
       <c r="L26" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K26,$B26,$D26,Calendar,$G26,$H26,$I26,$L$4,$J26,C26&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00129#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K26,$B26,$D26,Calendar,$G26,$H26,$I26,$L$4,$J26,C26&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00126#0001</v>
       </c>
       <c r="M26" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -8485,8 +8485,8 @@
         <v>HKDQM3H19Y_Quote</v>
       </c>
       <c r="L27" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K27,$B27,$D27,Calendar,$G27,$H27,$I27,$L$4,$J27,C27&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00132#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K27,$B27,$D27,Calendar,$G27,$H27,$I27,$L$4,$J27,C27&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00120#0001</v>
       </c>
       <c r="M27" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -8531,8 +8531,8 @@
         <v>HKDQM3H20Y_Quote</v>
       </c>
       <c r="L28" s="71" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K28,$B28,$D28,Calendar,$G28,$H28,$I28,$L$4,$J28,C28&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00135#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K28,$B28,$D28,Calendar,$G28,$H28,$I28,$L$4,$J28,C28&amp;"D",Discounting2,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00130#0001</v>
       </c>
       <c r="M28" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>

--- a/QuantLibXL/Data2/XLS/HKD/HKD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD/HKD_YCSTDBootstrapping.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19125" yWindow="-15" windowWidth="19170" windowHeight="12795"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9600" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralSettings" sheetId="1" r:id="rId1"/>
-    <sheet name="EURSTD" sheetId="15" r:id="rId2"/>
+    <sheet name="HKDSTD" sheetId="15" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -19,15 +19,15 @@
     <definedName name="Discounting">GeneralSettings!$D$7</definedName>
     <definedName name="Evaluationdate">GeneralSettings!$D$12</definedName>
     <definedName name="FamilyName">GeneralSettings!$D$8</definedName>
-    <definedName name="IncludeFlag" localSheetId="1">EURSTD!$P$3:$P$42</definedName>
-    <definedName name="MinDistance" localSheetId="1">EURSTD!$R$3:$R$42</definedName>
+    <definedName name="IncludeFlag" localSheetId="1">HKDSTD!$P$3:$P$42</definedName>
+    <definedName name="MinDistance" localSheetId="1">HKDSTD!$R$3:$R$42</definedName>
     <definedName name="ObjectOverwrite">GeneralSettings!$D$6</definedName>
     <definedName name="Permanent">GeneralSettings!$D$4</definedName>
     <definedName name="PillarDate">GeneralSettings!$D$10</definedName>
-    <definedName name="Priority" localSheetId="1">EURSTD!$Q$3:$Q$42</definedName>
+    <definedName name="Priority" localSheetId="1">HKDSTD!$Q$3:$Q$42</definedName>
     <definedName name="QuoteSuffix">GeneralSettings!$D$9</definedName>
-    <definedName name="RateHelpers" localSheetId="1">EURSTD!$M$3:$M$42</definedName>
-    <definedName name="RateHelpersSTD">EURSTD!$W$3:$W$42</definedName>
+    <definedName name="RateHelpers" localSheetId="1">HKDSTD!$M$3:$M$42</definedName>
+    <definedName name="RateHelpersSTD">HKDSTD!$W$3:$W$42</definedName>
     <definedName name="Settlementdate">GeneralSettings!$D$13</definedName>
     <definedName name="Trigger">GeneralSettings!$D$5</definedName>
     <definedName name="YieldCurve_STD">GeneralSettings!$D$18</definedName>
@@ -496,7 +496,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="177" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="178" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="180" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="179" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1098,24 +1098,24 @@
     <xf numFmtId="172" fontId="3" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="3" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Euro" xfId="6"/>
@@ -1148,7 +1148,6 @@
     <sheetNames>
       <sheetName val="General Settings"/>
       <sheetName val="Hibor"/>
-      <sheetName val="Hibor Time Series"/>
       <sheetName val="Deposits"/>
       <sheetName val="OIS"/>
       <sheetName val="FRA"/>
@@ -1159,76 +1158,22 @@
       <sheetName val="BasisSwap3M6M"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="4">
-          <cell r="D4" t="str">
-            <v>HKDON#0001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13" t="str">
+        <row r="12">
+          <cell r="D12" t="str">
             <v>HKDSTD#0001</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>HKDOND_Quote#0001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>HKDOISSW_Quote#0001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>HKDT1F1_Quote#0001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>HKDFUT3MN5_Quote#0001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>HKDAM1H2M_Quote#0001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>HKDQM3H6M_Quote#0001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>HKD3HI1HI6M_Quote#0001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>HKD3HI6HI6M_Quote#0001</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1642,7 +1587,7 @@
       </c>
       <c r="D12" s="13">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42180</v>
+        <v>42279</v>
       </c>
       <c r="E12" s="77"/>
     </row>
@@ -1653,7 +1598,7 @@
       </c>
       <c r="D13" s="15">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"1D","F",,Trigger)</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="E13" s="77"/>
     </row>
@@ -1686,7 +1631,7 @@
       </c>
       <c r="D18" s="41" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D20,D21,Calendar,_xll.ohPack(RateHelpersSTD),,,,D22,D23,D24,Permanent,,ObjectOverwrite)</f>
-        <v>_HKDSTD#0011</v>
+        <v>_HKDSTD#0001</v>
       </c>
       <c r="E18" s="42"/>
     </row>
@@ -1764,7 +1709,7 @@
       <c r="B26" s="23"/>
       <c r="C26" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_STD)</f>
-        <v>42180</v>
+        <v>42279</v>
       </c>
       <c r="D26" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C26,,Trigger)</f>
@@ -1777,18 +1722,18 @@
       <c r="B27" s="23"/>
       <c r="C27" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_STD,Trigger)</f>
-        <v>49493</v>
+        <v>49594</v>
       </c>
       <c r="D27" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C27,,Trigger)</f>
-        <v>0.59782063972857402</v>
+        <v>0.62012826322468761</v>
       </c>
       <c r="E27" s="42"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="23"/>
       <c r="C28" s="34" t="str">
-        <f>[1]Hibor!$D$13</f>
+        <f>[1]Hibor!$D$12</f>
         <v>HKDSTD#0001</v>
       </c>
       <c r="D28" s="35" t="b">
@@ -1845,10 +1790,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH127"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1990,15 +1936,15 @@
       <c r="AB2" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="131">
+      <c r="AC2" s="129">
         <f t="array" ref="AC2:AC42">_xll.qlPiecewiseYieldCurveData(YieldCurve_STD,Trigger)</f>
         <v>1</v>
       </c>
       <c r="AD2" s="126"/>
-      <c r="AE2" s="128" t="s">
+      <c r="AE2" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="AF2" s="129"/>
+      <c r="AF2" s="133"/>
       <c r="AH2" s="124"/>
     </row>
     <row r="3" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2024,7 +1970,7 @@
       <c r="I3" s="111"/>
       <c r="J3" s="107" t="str">
         <f>_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021a#0007</v>
+        <v>obj_00171#0001</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="65" t="str">
@@ -2033,7 +1979,7 @@
       </c>
       <c r="M3" s="116" t="str">
         <f>IF(ISBLANK(J3),"--",J3)</f>
-        <v>obj_0021a#0007</v>
+        <v>obj_00171#0001</v>
       </c>
       <c r="N3" s="120" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M3,Trigger),"--")</f>
@@ -2041,7 +1987,7 @@
       </c>
       <c r="O3" s="118">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M3,Trigger),"--")</f>
-        <v>5.6530000000000003E-4</v>
+        <v>5.4299999999999997E-4</v>
       </c>
       <c r="P3" s="117" t="b">
         <v>0</v>
@@ -2054,11 +2000,11 @@
       </c>
       <c r="S3" s="119">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M3,Trigger),"--")</f>
-        <v>42180</v>
+        <v>42279</v>
       </c>
       <c r="T3" s="119">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M3,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="U3" s="127"/>
       <c r="V3" s="3" t="str">
@@ -2067,7 +2013,7 @@
       </c>
       <c r="W3" s="3" t="str">
         <f t="array" ref="W3:W42">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AF$3,$AF$4,$AF$5,$AF$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_00215</v>
+        <v>obj_0014e</v>
       </c>
       <c r="X3" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
@@ -2075,7 +2021,7 @@
       </c>
       <c r="Y3" s="67">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v>5.4286000000000004E-3</v>
+        <v>5.6055000000000002E-3</v>
       </c>
       <c r="Z3" s="97" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
@@ -2083,14 +2029,14 @@
       </c>
       <c r="AA3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42180</v>
+        <v>42279</v>
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42366</v>
-      </c>
-      <c r="AC3" s="132">
-        <v>0.9972412765401325</v>
+        <v>42464</v>
+      </c>
+      <c r="AC3" s="130">
+        <v>0.99716690539366004</v>
       </c>
       <c r="AD3" s="126"/>
       <c r="AE3" s="100" t="s">
@@ -2119,22 +2065,22 @@
         <v>HkdHiborSW</v>
       </c>
       <c r="H4" s="109" t="str">
-        <f>Currency&amp;$C4&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" ref="H4:H11" si="1">Currency&amp;$C4&amp;"D"&amp;QuoteSuffix</f>
         <v>HKDSWD_Quote</v>
       </c>
       <c r="I4" s="112"/>
       <c r="J4" s="61" t="str">
         <f>_xll.qlDepositRateHelper(,H4,G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00219#0013</v>
+        <v>obj_0014b#0001</v>
       </c>
       <c r="K4" s="48"/>
       <c r="L4" s="9" t="str">
-        <f t="shared" ref="L4:L11" si="1">A4</f>
+        <f t="shared" ref="L4:L11" si="2">A4</f>
         <v>Dp</v>
       </c>
       <c r="M4" s="87" t="str">
-        <f t="shared" ref="M4:M11" si="2">IF(ISBLANK(J4),"--",J4)</f>
-        <v>obj_00219#0013</v>
+        <f t="shared" ref="M4:M11" si="3">IF(ISBLANK(J4),"--",J4)</f>
+        <v>obj_0014b#0001</v>
       </c>
       <c r="N4" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M4,Trigger),"--")</f>
@@ -2155,19 +2101,19 @@
       </c>
       <c r="S4" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M4,Trigger),"--")</f>
-        <v>42180</v>
+        <v>42279</v>
       </c>
       <c r="T4" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M4,Trigger),"--")</f>
-        <v>42187</v>
+        <v>42286</v>
       </c>
       <c r="U4" s="127"/>
       <c r="V4" s="3" t="str">
-        <f t="shared" ref="V4:V42" si="3">IFERROR(INDEX($L$3:$L$42,MATCH(X4,$N$3:$N$42,0),1),"")</f>
+        <f t="shared" ref="V4:V42" si="4">IFERROR(INDEX($L$3:$L$42,MATCH(X4,$N$3:$N$42,0),1),"")</f>
         <v>Sw</v>
       </c>
       <c r="W4" s="3" t="str">
-        <v>obj_0023b</v>
+        <v>obj_0015d</v>
       </c>
       <c r="X4" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
@@ -2175,7 +2121,7 @@
       </c>
       <c r="Y4" s="67">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v>5.3E-3</v>
+        <v>5.9000000000000007E-3</v>
       </c>
       <c r="Z4" s="97">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
@@ -2183,14 +2129,14 @@
       </c>
       <c r="AA4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42548</v>
-      </c>
-      <c r="AC4" s="132">
-        <v>0.99467307832788687</v>
+        <v>42648</v>
+      </c>
+      <c r="AC4" s="130">
+        <v>0.99405855748403382</v>
       </c>
       <c r="AD4" s="126"/>
       <c r="AE4" s="100" t="s">
@@ -2219,22 +2165,22 @@
         <v>HkdHibor2W</v>
       </c>
       <c r="H5" s="109" t="str">
-        <f>Currency&amp;$C5&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKD2WD_Quote</v>
       </c>
       <c r="I5" s="112"/>
       <c r="J5" s="61" t="str">
         <f>_xll.qlDepositRateHelper(,H5,G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021b#0014</v>
+        <v>obj_0014a#0001</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M5" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_0021b#0014</v>
+        <f t="shared" si="3"/>
+        <v>obj_0014a#0001</v>
       </c>
       <c r="N5" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M5,Trigger),"--")</f>
@@ -2242,7 +2188,7 @@
       </c>
       <c r="O5" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M5,Trigger),"--")</f>
-        <v>1.6257000000000001E-3</v>
+        <v>1.3157000000000002E-3</v>
       </c>
       <c r="P5" s="90" t="b">
         <v>0</v>
@@ -2255,19 +2201,19 @@
       </c>
       <c r="S5" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M5,Trigger),"--")</f>
-        <v>42180</v>
+        <v>42279</v>
       </c>
       <c r="T5" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M5,Trigger),"--")</f>
-        <v>42194</v>
+        <v>42293</v>
       </c>
       <c r="U5" s="127"/>
       <c r="V5" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Sw</v>
       </c>
       <c r="W5" s="3" t="str">
-        <v>obj_00230</v>
+        <v>obj_0015c</v>
       </c>
       <c r="X5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
@@ -2275,7 +2221,7 @@
       </c>
       <c r="Y5" s="67">
         <f>IFERROR(_xll.qlRateHelperRate(W5,Trigger),"")</f>
-        <v>6.6999999999999994E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="Z5" s="97">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W5)),_xll.qlSwapRateHelperSpread($W5))</f>
@@ -2283,14 +2229,14 @@
       </c>
       <c r="AA5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42731</v>
-      </c>
-      <c r="AC5" s="132">
-        <v>0.9899402846901465</v>
+        <v>42830</v>
+      </c>
+      <c r="AC5" s="130">
+        <v>0.98905468997370716</v>
       </c>
       <c r="AD5" s="126"/>
       <c r="AE5" s="100" t="s">
@@ -2315,26 +2261,26 @@
       <c r="E6" s="112"/>
       <c r="F6" s="112"/>
       <c r="G6" s="59" t="str">
-        <f t="shared" ref="G6:G11" si="4">PROPER(Currency)&amp;FamilyName&amp;C6</f>
+        <f t="shared" ref="G6:G11" si="5">PROPER(Currency)&amp;FamilyName&amp;C6</f>
         <v>HkdHibor1M</v>
       </c>
       <c r="H6" s="109" t="str">
-        <f>Currency&amp;$C6&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKD1MD_Quote</v>
       </c>
       <c r="I6" s="112"/>
       <c r="J6" s="61" t="str">
         <f>_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00217#0013</v>
+        <v>obj_00162#0001</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M6" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_00217#0013</v>
+        <f t="shared" si="3"/>
+        <v>obj_00162#0001</v>
       </c>
       <c r="N6" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M6,Trigger),"--")</f>
@@ -2342,7 +2288,7 @@
       </c>
       <c r="O6" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M6,Trigger),"--")</f>
-        <v>2.4094000000000003E-3</v>
+        <v>2.4285999999999999E-3</v>
       </c>
       <c r="P6" s="90" t="b">
         <v>0</v>
@@ -2355,19 +2301,19 @@
       </c>
       <c r="S6" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M6,Trigger),"--")</f>
-        <v>42180</v>
+        <v>42279</v>
       </c>
       <c r="T6" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M6,Trigger),"--")</f>
-        <v>42212</v>
+        <v>42310</v>
       </c>
       <c r="U6" s="127"/>
       <c r="V6" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Sw</v>
       </c>
       <c r="W6" s="3" t="str">
-        <v>obj_00227</v>
+        <v>obj_0015b</v>
       </c>
       <c r="X6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
@@ -2375,7 +2321,7 @@
       </c>
       <c r="Y6" s="67">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v>8.3000000000000001E-3</v>
+        <v>8.5999999999999983E-3</v>
       </c>
       <c r="Z6" s="97">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
@@ -2383,14 +2329,14 @@
       </c>
       <c r="AA6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42912</v>
-      </c>
-      <c r="AC6" s="132">
-        <v>0.98348675808599173</v>
+        <v>43013</v>
+      </c>
+      <c r="AC6" s="130">
+        <v>0.98286902412437982</v>
       </c>
       <c r="AD6" s="126"/>
       <c r="AE6" s="100" t="s">
@@ -2415,26 +2361,26 @@
       <c r="E7" s="112"/>
       <c r="F7" s="112"/>
       <c r="G7" s="59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>HkdHibor2M</v>
       </c>
       <c r="H7" s="109" t="str">
-        <f>Currency&amp;$C7&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKD2MD_Quote</v>
       </c>
       <c r="I7" s="112"/>
       <c r="J7" s="61" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00216#0013</v>
+        <v>obj_00167#0001</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M7" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_00216#0013</v>
+        <f t="shared" si="3"/>
+        <v>obj_00167#0001</v>
       </c>
       <c r="N7" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
@@ -2442,7 +2388,7 @@
       </c>
       <c r="O7" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>3.0586000000000003E-3</v>
+        <v>3.1935999999999996E-3</v>
       </c>
       <c r="P7" s="90" t="b">
         <v>0</v>
@@ -2455,19 +2401,19 @@
       </c>
       <c r="S7" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42180</v>
+        <v>42279</v>
       </c>
       <c r="T7" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42241</v>
+        <v>42340</v>
       </c>
       <c r="U7" s="127"/>
       <c r="V7" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Sw</v>
       </c>
       <c r="W7" s="3" t="str">
-        <v>obj_00220</v>
+        <v>obj_0016d</v>
       </c>
       <c r="X7" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
@@ -2475,7 +2421,7 @@
       </c>
       <c r="Y7" s="67">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>1.14E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="Z7" s="97">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -2483,14 +2429,14 @@
       </c>
       <c r="AA7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>43277</v>
-      </c>
-      <c r="AC7" s="132">
-        <v>0.96623222939470677</v>
+        <v>43378</v>
+      </c>
+      <c r="AC7" s="130">
+        <v>0.9679815703258009</v>
       </c>
       <c r="AD7" s="126"/>
       <c r="AH7" s="124"/>
@@ -2509,26 +2455,26 @@
       <c r="E8" s="112"/>
       <c r="F8" s="112"/>
       <c r="G8" s="59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H8" s="109" t="str">
-        <f>Currency&amp;$C8&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKD3MD_Quote</v>
       </c>
       <c r="I8" s="112"/>
       <c r="J8" s="61" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00218#0013</v>
+        <v>obj_0016c#0001</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M8" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_00218#0013</v>
+        <f t="shared" si="3"/>
+        <v>obj_0016c#0001</v>
       </c>
       <c r="N8" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
@@ -2536,7 +2482,7 @@
       </c>
       <c r="O8" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M8,Trigger),"--")</f>
-        <v>3.8814000000000006E-3</v>
+        <v>3.9842000000000002E-3</v>
       </c>
       <c r="P8" s="90" t="b">
         <v>0</v>
@@ -2549,19 +2495,19 @@
       </c>
       <c r="S8" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42180</v>
+        <v>42279</v>
       </c>
       <c r="T8" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42373</v>
       </c>
       <c r="U8" s="127"/>
       <c r="V8" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Sw</v>
       </c>
       <c r="W8" s="3" t="str">
-        <v>obj_0021f</v>
+        <v>obj_0015a</v>
       </c>
       <c r="X8" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
@@ -2569,7 +2515,7 @@
       </c>
       <c r="Y8" s="67">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>1.3900000000000001E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="Z8" s="97">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -2577,14 +2523,14 @@
       </c>
       <c r="AA8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>43642</v>
-      </c>
-      <c r="AC8" s="132">
-        <v>0.94557552754721896</v>
+        <v>43745</v>
+      </c>
+      <c r="AC8" s="130">
+        <v>0.95052573381550387</v>
       </c>
       <c r="AD8" s="126"/>
       <c r="AH8" s="124"/>
@@ -2603,26 +2549,26 @@
       <c r="E9" s="112"/>
       <c r="F9" s="112"/>
       <c r="G9" s="59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>HkdHibor6M</v>
       </c>
       <c r="H9" s="109" t="str">
-        <f>Currency&amp;$C9&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKD6MD_Quote</v>
       </c>
       <c r="I9" s="112"/>
       <c r="J9" s="61" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00215#0013</v>
+        <v>obj_0014e#0001</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M9" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_00215#0013</v>
+        <f t="shared" si="3"/>
+        <v>obj_0014e#0001</v>
       </c>
       <c r="N9" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -2630,7 +2576,7 @@
       </c>
       <c r="O9" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>5.4286000000000004E-3</v>
+        <v>5.6055000000000002E-3</v>
       </c>
       <c r="P9" s="90" t="b">
         <v>1</v>
@@ -2643,19 +2589,19 @@
       </c>
       <c r="S9" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42180</v>
+        <v>42279</v>
       </c>
       <c r="T9" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42366</v>
+        <v>42464</v>
       </c>
       <c r="U9" s="127"/>
       <c r="V9" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Sw</v>
       </c>
       <c r="W9" s="3" t="str">
-        <v>obj_00222</v>
+        <v>obj_0016b</v>
       </c>
       <c r="X9" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
@@ -2663,7 +2609,7 @@
       </c>
       <c r="Y9" s="67">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v>1.6200000000000003E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="Z9" s="97">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
@@ -2671,14 +2617,14 @@
       </c>
       <c r="AA9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>44008</v>
-      </c>
-      <c r="AC9" s="132">
-        <v>0.92145460157204218</v>
+        <v>44109</v>
+      </c>
+      <c r="AC9" s="130">
+        <v>0.93144194630553867</v>
       </c>
       <c r="AD9" s="126"/>
       <c r="AH9" s="124"/>
@@ -2697,28 +2643,28 @@
       <c r="E10" s="112"/>
       <c r="F10" s="112"/>
       <c r="G10" s="59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>HkdHibor9M</v>
       </c>
       <c r="H10" s="109" t="str">
-        <f>Currency&amp;$C10&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKD9MD_Quote</v>
       </c>
       <c r="I10" s="112"/>
       <c r="J10" s="61" t="str">
         <f>_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00214#0013</v>
+        <v>obj_0014c#0001</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>34</v>
       </c>
       <c r="L10" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M10" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_00214#0013</v>
+        <f t="shared" si="3"/>
+        <v>obj_0014c#0001</v>
       </c>
       <c r="N10" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
@@ -2739,19 +2685,19 @@
       </c>
       <c r="S10" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42180</v>
+        <v>42279</v>
       </c>
       <c r="T10" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42458</v>
+        <v>42555</v>
       </c>
       <c r="U10" s="127"/>
       <c r="V10" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Sw</v>
       </c>
       <c r="W10" s="3" t="str">
-        <v>obj_00225</v>
+        <v>obj_0016a</v>
       </c>
       <c r="X10" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
@@ -2759,7 +2705,7 @@
       </c>
       <c r="Y10" s="67">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v>1.9300000000000001E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="Z10" s="97">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
@@ -2767,14 +2713,14 @@
       </c>
       <c r="AA10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>44739</v>
-      </c>
-      <c r="AC10" s="132">
-        <v>0.87188440298917702</v>
+        <v>44839</v>
+      </c>
+      <c r="AC10" s="130">
+        <v>0.88980495213998312</v>
       </c>
       <c r="AD10" s="126"/>
       <c r="AH10" s="124"/>
@@ -2793,26 +2739,26 @@
       <c r="E11" s="113"/>
       <c r="F11" s="113"/>
       <c r="G11" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>HkdHibor1Y</v>
       </c>
       <c r="H11" s="110" t="str">
-        <f>Currency&amp;$C11&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>HKD1YD_Quote</v>
       </c>
       <c r="I11" s="113"/>
       <c r="J11" s="2" t="str">
         <f>_xll.qlDepositRateHelper(,H11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021c#0007</v>
+        <v>obj_0014d#0001</v>
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M11" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_0021c#0007</v>
+        <f t="shared" si="3"/>
+        <v>obj_0014d#0001</v>
       </c>
       <c r="N11" s="122" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
@@ -2820,7 +2766,7 @@
       </c>
       <c r="O11" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M11,Trigger),"--")</f>
-        <v>8.4329000000000001E-3</v>
+        <v>8.7221E-3</v>
       </c>
       <c r="P11" s="93" t="b">
         <v>0</v>
@@ -2833,19 +2779,19 @@
       </c>
       <c r="S11" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>42180</v>
+        <v>42279</v>
       </c>
       <c r="T11" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
-        <v>42548</v>
+        <v>42647</v>
       </c>
       <c r="U11" s="127"/>
       <c r="V11" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Sw</v>
       </c>
       <c r="W11" s="3" t="str">
-        <v>obj_00224</v>
+        <v>obj_00157</v>
       </c>
       <c r="X11" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
@@ -2853,7 +2799,7 @@
       </c>
       <c r="Y11" s="67">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v>2.2099999999999998E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="Z11" s="97">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
@@ -2861,14 +2807,14 @@
       </c>
       <c r="AA11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>45834</v>
-      </c>
-      <c r="AC11" s="132">
-        <v>0.79819693203697051</v>
+        <v>45936</v>
+      </c>
+      <c r="AC11" s="130">
+        <v>0.82434805282230406</v>
       </c>
       <c r="AD11" s="126"/>
       <c r="AH11" s="124"/>
@@ -2887,7 +2833,7 @@
       </c>
       <c r="M12" s="87" t="str">
         <f>IF(ISBLANK(J14),"--",J14)</f>
-        <v>obj_00238#0024</v>
+        <v>obj_0015e#0001</v>
       </c>
       <c r="N12" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
@@ -2895,7 +2841,7 @@
       </c>
       <c r="O12" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M12,Trigger),"--")</f>
-        <v>4.2000000000000006E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="P12" s="90" t="b">
         <v>0</v>
@@ -2908,18 +2854,18 @@
       </c>
       <c r="S12" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T12" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>42366</v>
+        <v>42465</v>
       </c>
       <c r="V12" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Sw</v>
       </c>
       <c r="W12" s="3" t="str">
-        <v>obj_0022b</v>
+        <v>obj_00156</v>
       </c>
       <c r="X12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
@@ -2927,7 +2873,7 @@
       </c>
       <c r="Y12" s="67">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>2.2700000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="Z12" s="97">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
@@ -2935,14 +2881,14 @@
       </c>
       <c r="AA12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>46566</v>
-      </c>
-      <c r="AC12" s="132">
-        <v>0.75743861606421581</v>
+        <v>46665</v>
+      </c>
+      <c r="AC12" s="130">
+        <v>0.78630279328969188</v>
       </c>
       <c r="AD12" s="126"/>
       <c r="AH12" s="124"/>
@@ -2980,12 +2926,12 @@
       </c>
       <c r="K13" s="48"/>
       <c r="L13" s="9" t="str">
-        <f t="shared" ref="L13:L41" si="5">A15</f>
+        <f t="shared" ref="L13:L41" si="6">A15</f>
         <v>Sw</v>
       </c>
       <c r="M13" s="87" t="str">
-        <f t="shared" ref="M13:M41" si="6">IF(ISBLANK(J15),"--",J15)</f>
-        <v>obj_0023a#0004</v>
+        <f t="shared" ref="M13:M41" si="7">IF(ISBLANK(J15),"--",J15)</f>
+        <v>obj_00170#0001</v>
       </c>
       <c r="N13" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M13,Trigger),"--")</f>
@@ -2993,7 +2939,7 @@
       </c>
       <c r="O13" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M13,Trigger),"--")</f>
-        <v>4.5999999999999999E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="P13" s="90" t="b">
         <v>0</v>
@@ -3006,18 +2952,18 @@
       </c>
       <c r="S13" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M13,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T13" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M13,Trigger),"--")</f>
-        <v>42458</v>
+        <v>42556</v>
       </c>
       <c r="V13" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Sw</v>
       </c>
       <c r="W13" s="3" t="str">
-        <v>obj_00232</v>
+        <v>obj_00165</v>
       </c>
       <c r="X13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
@@ -3025,7 +2971,7 @@
       </c>
       <c r="Y13" s="67">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>2.3700000000000002E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="Z13" s="97">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
@@ -3033,14 +2979,14 @@
       </c>
       <c r="AA13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>47660</v>
-      </c>
-      <c r="AC13" s="132">
-        <v>0.69532824631967038</v>
+        <v>47763</v>
+      </c>
+      <c r="AC13" s="130">
+        <v>0.73222488117902784</v>
       </c>
       <c r="AD13" s="126"/>
       <c r="AH13" s="124"/>
@@ -3065,11 +3011,11 @@
         <v>96</v>
       </c>
       <c r="G14" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" ref="G14:G44" si="8">PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
         <v>HkdHibor3M</v>
       </c>
       <c r="H14" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B14&amp;"_Quote"</f>
+        <f t="shared" ref="H14:H44" si="9">Currency&amp;$G$12&amp;$H$12&amp;$B14&amp;"_Quote"</f>
         <v>HKDQM3H6M_Quote</v>
       </c>
       <c r="I14" s="114">
@@ -3077,16 +3023,16 @@
       </c>
       <c r="J14" s="56" t="str">
         <f>_xll.qlSwapRateHelper2(,H14,1,B14,Calendar,D14,E14,F14,G14,I14,C14,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00238#0024</v>
+        <v>obj_0015e#0001</v>
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M14" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_0023b#0004</v>
+        <f t="shared" si="7"/>
+        <v>obj_0015d#0001</v>
       </c>
       <c r="N14" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M14,Trigger),"--")</f>
@@ -3094,7 +3040,7 @@
       </c>
       <c r="O14" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M14,Trigger),"--")</f>
-        <v>5.3E-3</v>
+        <v>5.9000000000000007E-3</v>
       </c>
       <c r="P14" s="90" t="b">
         <v>1</v>
@@ -3107,18 +3053,18 @@
       </c>
       <c r="S14" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M14,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T14" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M14,Trigger),"--")</f>
-        <v>42548</v>
+        <v>42648</v>
       </c>
       <c r="V14" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Sw</v>
       </c>
       <c r="W14" s="3" t="str">
-        <v>obj_00235</v>
+        <v>obj_00152</v>
       </c>
       <c r="X14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
@@ -3126,7 +3072,7 @@
       </c>
       <c r="Y14" s="67">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="Z14" s="97">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
@@ -3134,14 +3080,14 @@
       </c>
       <c r="AA14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>49486</v>
-      </c>
-      <c r="AC14" s="132">
-        <v>0.59816766612848471</v>
+        <v>49587</v>
+      </c>
+      <c r="AC14" s="130">
+        <v>0.62055870486098552</v>
       </c>
       <c r="AD14" s="126"/>
       <c r="AH14" s="124"/>
@@ -3166,11 +3112,11 @@
         <v>96</v>
       </c>
       <c r="G15" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H15" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B15&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H9M_Quote</v>
       </c>
       <c r="I15" s="115">
@@ -3178,16 +3124,16 @@
       </c>
       <c r="J15" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H15,1,B15,Calendar,D15,E15,F15,G15,I15,C15,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023a#0004</v>
+        <v>obj_00170#0001</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M15" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00239#0004</v>
+        <f t="shared" si="7"/>
+        <v>obj_0016f#0001</v>
       </c>
       <c r="N15" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M15,Trigger),"--")</f>
@@ -3208,14 +3154,14 @@
       </c>
       <c r="S15" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M15,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T15" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M15,Trigger),"--")</f>
-        <v>42639</v>
+        <v>42740</v>
       </c>
       <c r="V15" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W15" s="3" t="e">
@@ -3241,7 +3187,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC15" s="132" t="e">
+      <c r="AC15" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD15" s="126"/>
@@ -3267,11 +3213,11 @@
         <v>96</v>
       </c>
       <c r="G16" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H16" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B16&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H1Y_Quote</v>
       </c>
       <c r="I16" s="115">
@@ -3279,16 +3225,16 @@
       </c>
       <c r="J16" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H16,1,B16,Calendar,D16,E16,F16,G16,I16,C16,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023b#0004</v>
+        <v>obj_0015d#0001</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M16" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00230#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_0015c#0001</v>
       </c>
       <c r="N16" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M16,Trigger),"--")</f>
@@ -3296,7 +3242,7 @@
       </c>
       <c r="O16" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M16,Trigger),"--")</f>
-        <v>6.6999999999999994E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="P16" s="90" t="b">
         <v>1</v>
@@ -3309,14 +3255,14 @@
       </c>
       <c r="S16" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M16,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T16" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M16,Trigger),"--")</f>
-        <v>42731</v>
+        <v>42830</v>
       </c>
       <c r="V16" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W16" s="3" t="e">
@@ -3342,7 +3288,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC16" s="132" t="e">
+      <c r="AC16" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD16" s="126"/>
@@ -3368,11 +3314,11 @@
         <v>96</v>
       </c>
       <c r="G17" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H17" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B17&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H15M_Quote</v>
       </c>
       <c r="I17" s="115">
@@ -3380,16 +3326,16 @@
       </c>
       <c r="J17" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H17,1,B17,Calendar,D17,E17,F17,G17,I17,C17,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00239#0004</v>
+        <v>obj_0016f#0001</v>
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M17" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00223#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_0016e#0001</v>
       </c>
       <c r="N17" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
@@ -3410,14 +3356,14 @@
       </c>
       <c r="S17" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T17" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>42821</v>
+        <v>42921</v>
       </c>
       <c r="V17" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W17" s="3" t="e">
@@ -3443,7 +3389,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC17" s="132" t="e">
+      <c r="AC17" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD17" s="126"/>
@@ -3469,11 +3415,11 @@
         <v>96</v>
       </c>
       <c r="G18" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H18" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B18&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H18M_Quote</v>
       </c>
       <c r="I18" s="115">
@@ -3481,16 +3427,16 @@
       </c>
       <c r="J18" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H18,1,B18,Calendar,D18,E18,F18,G18,I18,C18,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00230#0005</v>
+        <v>obj_0015c#0001</v>
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M18" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00227#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_0015b#0001</v>
       </c>
       <c r="N18" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
@@ -3498,7 +3444,7 @@
       </c>
       <c r="O18" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M18,Trigger),"--")</f>
-        <v>8.3000000000000001E-3</v>
+        <v>8.5999999999999983E-3</v>
       </c>
       <c r="P18" s="90" t="b">
         <v>1</v>
@@ -3511,14 +3457,14 @@
       </c>
       <c r="S18" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T18" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>42912</v>
+        <v>43013</v>
       </c>
       <c r="V18" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W18" s="3" t="e">
@@ -3544,7 +3490,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC18" s="132" t="e">
+      <c r="AC18" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD18" s="126"/>
@@ -3570,11 +3516,11 @@
         <v>96</v>
       </c>
       <c r="G19" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H19" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B19&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H21M_Quote</v>
       </c>
       <c r="I19" s="115">
@@ -3582,16 +3528,16 @@
       </c>
       <c r="J19" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H19,1,B19,Calendar,D19,E19,F19,G19,I19,C19,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00223#0005</v>
+        <v>obj_0016e#0001</v>
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M19" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00220#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_0016d#0001</v>
       </c>
       <c r="N19" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M19,Trigger),"--")</f>
@@ -3599,7 +3545,7 @@
       </c>
       <c r="O19" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M19,Trigger),"--")</f>
-        <v>1.14E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="P19" s="90" t="b">
         <v>1</v>
@@ -3612,14 +3558,14 @@
       </c>
       <c r="S19" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M19,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T19" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M19,Trigger),"--")</f>
-        <v>43277</v>
+        <v>43378</v>
       </c>
       <c r="V19" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W19" s="3" t="e">
@@ -3645,7 +3591,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC19" s="132" t="e">
+      <c r="AC19" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD19" s="126"/>
@@ -3671,11 +3617,11 @@
         <v>96</v>
       </c>
       <c r="G20" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H20" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B20&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H2Y_Quote</v>
       </c>
       <c r="I20" s="115">
@@ -3683,16 +3629,16 @@
       </c>
       <c r="J20" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H20,1,B20,Calendar,D20,E20,F20,G20,I20,C20,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00227#0005</v>
+        <v>obj_0015b#0001</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M20" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_0021f#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_0015a#0001</v>
       </c>
       <c r="N20" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
@@ -3700,7 +3646,7 @@
       </c>
       <c r="O20" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M20,Trigger),"--")</f>
-        <v>1.3900000000000001E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="P20" s="90" t="b">
         <v>1</v>
@@ -3713,14 +3659,14 @@
       </c>
       <c r="S20" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T20" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>43642</v>
+        <v>43745</v>
       </c>
       <c r="V20" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W20" s="3" t="e">
@@ -3746,7 +3692,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC20" s="132" t="e">
+      <c r="AC20" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD20" s="126"/>
@@ -3772,11 +3718,11 @@
         <v>96</v>
       </c>
       <c r="G21" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H21" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B21&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H3Y_Quote</v>
       </c>
       <c r="I21" s="115">
@@ -3784,16 +3730,16 @@
       </c>
       <c r="J21" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H21,1,B21,Calendar,D21,E21,F21,G21,I21,C21,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00220#0005</v>
+        <v>obj_0016d#0001</v>
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M21" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00222#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_0016b#0001</v>
       </c>
       <c r="N21" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M21,Trigger),"--")</f>
@@ -3801,7 +3747,7 @@
       </c>
       <c r="O21" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M21,Trigger),"--")</f>
-        <v>1.6200000000000003E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="P21" s="90" t="b">
         <v>1</v>
@@ -3814,14 +3760,14 @@
       </c>
       <c r="S21" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M21,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T21" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M21,Trigger),"--")</f>
-        <v>44008</v>
+        <v>44109</v>
       </c>
       <c r="V21" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W21" s="3" t="e">
@@ -3847,7 +3793,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC21" s="132" t="e">
+      <c r="AC21" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD21" s="126"/>
@@ -3873,11 +3819,11 @@
         <v>96</v>
       </c>
       <c r="G22" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H22" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B22&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H4Y_Quote</v>
       </c>
       <c r="I22" s="115">
@@ -3885,16 +3831,16 @@
       </c>
       <c r="J22" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H22,1,B22,Calendar,D22,E22,F22,G22,I22,C22,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021f#0005</v>
+        <v>obj_0015a#0001</v>
       </c>
       <c r="K22" s="48"/>
       <c r="L22" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M22" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00236#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00159#0001</v>
       </c>
       <c r="N22" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M22,Trigger),"--")</f>
@@ -3915,14 +3861,14 @@
       </c>
       <c r="S22" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M22,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T22" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M22,Trigger),"--")</f>
-        <v>44375</v>
+        <v>44474</v>
       </c>
       <c r="V22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W22" s="3" t="e">
@@ -3948,7 +3894,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC22" s="132" t="e">
+      <c r="AC22" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD22" s="126"/>
@@ -3974,11 +3920,11 @@
         <v>96</v>
       </c>
       <c r="G23" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H23" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B23&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H5Y_Quote</v>
       </c>
       <c r="I23" s="115">
@@ -3986,16 +3932,16 @@
       </c>
       <c r="J23" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H23,1,B23,Calendar,D23,E23,F23,G23,I23,C23,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00222#0005</v>
+        <v>obj_0016b#0001</v>
       </c>
       <c r="K23" s="48"/>
       <c r="L23" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M23" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00225#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_0016a#0001</v>
       </c>
       <c r="N23" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M23,Trigger),"--")</f>
@@ -4003,7 +3949,7 @@
       </c>
       <c r="O23" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M23,Trigger),"--")</f>
-        <v>1.9300000000000001E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="P23" s="90" t="b">
         <v>1</v>
@@ -4016,14 +3962,14 @@
       </c>
       <c r="S23" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M23,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T23" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M23,Trigger),"--")</f>
-        <v>44739</v>
+        <v>44839</v>
       </c>
       <c r="V23" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W23" s="3" t="e">
@@ -4049,7 +3995,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC23" s="132" t="e">
+      <c r="AC23" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD23" s="126"/>
@@ -4075,11 +4021,11 @@
         <v>96</v>
       </c>
       <c r="G24" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H24" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B24&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H6Y_Quote</v>
       </c>
       <c r="I24" s="115">
@@ -4087,16 +4033,16 @@
       </c>
       <c r="J24" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H24,1,B24,Calendar,D24,E24,F24,G24,I24,C24,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00236#0005</v>
+        <v>obj_00159#0001</v>
       </c>
       <c r="K24" s="48"/>
       <c r="L24" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M24" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_0022f#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00158#0001</v>
       </c>
       <c r="N24" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M24,Trigger),"--")</f>
@@ -4117,14 +4063,14 @@
       </c>
       <c r="S24" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M24,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T24" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M24,Trigger),"--")</f>
-        <v>45103</v>
+        <v>45204</v>
       </c>
       <c r="V24" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W24" s="3" t="e">
@@ -4150,7 +4096,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W24,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC24" s="132" t="e">
+      <c r="AC24" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD24" s="126"/>
@@ -4176,11 +4122,11 @@
         <v>96</v>
       </c>
       <c r="G25" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H25" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B25&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H7Y_Quote</v>
       </c>
       <c r="I25" s="115">
@@ -4188,16 +4134,16 @@
       </c>
       <c r="J25" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H25,1,B25,Calendar,D25,E25,F25,G25,I25,C25,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00225#0005</v>
+        <v>obj_0016a#0001</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M25" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00228#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00169#0001</v>
       </c>
       <c r="N25" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M25,Trigger),"--")</f>
@@ -4218,14 +4164,14 @@
       </c>
       <c r="S25" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M25,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T25" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M25,Trigger),"--")</f>
-        <v>45469</v>
+        <v>45572</v>
       </c>
       <c r="V25" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W25" s="3" t="e">
@@ -4251,7 +4197,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W25,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC25" s="132" t="e">
+      <c r="AC25" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD25" s="126"/>
@@ -4277,11 +4223,11 @@
         <v>96</v>
       </c>
       <c r="G26" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H26" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B26&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H8Y_Quote</v>
       </c>
       <c r="I26" s="115">
@@ -4289,16 +4235,16 @@
       </c>
       <c r="J26" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H26,1,B26,Calendar,D26,E26,F26,G26,I26,C26,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022f#0005</v>
+        <v>obj_00158#0001</v>
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M26" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00224#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00157#0001</v>
       </c>
       <c r="N26" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M26,Trigger),"--")</f>
@@ -4306,7 +4252,7 @@
       </c>
       <c r="O26" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M26,Trigger),"--")</f>
-        <v>2.2099999999999998E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="P26" s="90" t="b">
         <v>1</v>
@@ -4319,14 +4265,14 @@
       </c>
       <c r="S26" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M26,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T26" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M26,Trigger),"--")</f>
-        <v>45834</v>
+        <v>45936</v>
       </c>
       <c r="V26" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W26" s="3" t="e">
@@ -4352,7 +4298,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W26,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC26" s="132" t="e">
+      <c r="AC26" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD26" s="126"/>
@@ -4378,11 +4324,11 @@
         <v>96</v>
       </c>
       <c r="G27" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H27" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B27&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H9Y_Quote</v>
       </c>
       <c r="I27" s="115">
@@ -4390,16 +4336,16 @@
       </c>
       <c r="J27" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H27,1,B27,Calendar,D27,E27,F27,G27,I27,C27,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00228#0005</v>
+        <v>obj_00169#0001</v>
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M27" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00231#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00168#0001</v>
       </c>
       <c r="N27" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M27,Trigger),"--")</f>
@@ -4420,14 +4366,14 @@
       </c>
       <c r="S27" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M27,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T27" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M27,Trigger),"--")</f>
-        <v>46199</v>
+        <v>46300</v>
       </c>
       <c r="V27" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W27" s="3" t="e">
@@ -4453,7 +4399,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W27,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC27" s="132" t="e">
+      <c r="AC27" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD27" s="126"/>
@@ -4479,11 +4425,11 @@
         <v>96</v>
       </c>
       <c r="G28" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H28" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B28&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H10Y_Quote</v>
       </c>
       <c r="I28" s="115">
@@ -4491,16 +4437,16 @@
       </c>
       <c r="J28" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H28,1,B28,Calendar,D28,E28,F28,G28,I28,C28,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00224#0005</v>
+        <v>obj_00157#0001</v>
       </c>
       <c r="K28" s="48"/>
       <c r="L28" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M28" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_0022b#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00156#0001</v>
       </c>
       <c r="N28" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M28,Trigger),"--")</f>
@@ -4508,7 +4454,7 @@
       </c>
       <c r="O28" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M28,Trigger),"--")</f>
-        <v>2.2700000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="P28" s="90" t="b">
         <v>1</v>
@@ -4521,14 +4467,14 @@
       </c>
       <c r="S28" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M28,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T28" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M28,Trigger),"--")</f>
-        <v>46566</v>
+        <v>46665</v>
       </c>
       <c r="V28" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W28" s="3" t="e">
@@ -4554,7 +4500,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W28,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC28" s="132" t="e">
+      <c r="AC28" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD28" s="126"/>
@@ -4580,11 +4526,11 @@
         <v>96</v>
       </c>
       <c r="G29" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H29" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B29&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H11Y_Quote</v>
       </c>
       <c r="I29" s="115">
@@ -4592,16 +4538,16 @@
       </c>
       <c r="J29" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H29,1,B29,Calendar,D29,E29,F29,G29,I29,C29,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00231#0005</v>
+        <v>obj_00168#0001</v>
       </c>
       <c r="K29" s="48"/>
       <c r="L29" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M29" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_0022d#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00166#0001</v>
       </c>
       <c r="N29" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M29,Trigger),"--")</f>
@@ -4622,14 +4568,14 @@
       </c>
       <c r="S29" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M29,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T29" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M29,Trigger),"--")</f>
-        <v>46930</v>
+        <v>47031</v>
       </c>
       <c r="V29" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W29" s="3" t="e">
@@ -4655,7 +4601,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W29,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC29" s="132" t="e">
+      <c r="AC29" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD29" s="126"/>
@@ -4681,11 +4627,11 @@
         <v>96</v>
       </c>
       <c r="G30" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H30" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B30&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H12Y_Quote</v>
       </c>
       <c r="I30" s="115">
@@ -4693,16 +4639,16 @@
       </c>
       <c r="J30" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H30,1,B30,Calendar,D30,E30,F30,G30,I30,C30,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022b#0005</v>
+        <v>obj_00156#0001</v>
       </c>
       <c r="K30" s="48"/>
       <c r="L30" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M30" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_0022c#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00155#0001</v>
       </c>
       <c r="N30" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M30,Trigger),"--")</f>
@@ -4723,14 +4669,14 @@
       </c>
       <c r="S30" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M30,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T30" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M30,Trigger),"--")</f>
-        <v>47295</v>
+        <v>47396</v>
       </c>
       <c r="V30" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W30" s="3" t="e">
@@ -4756,7 +4702,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W30,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC30" s="132" t="e">
+      <c r="AC30" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD30" s="126"/>
@@ -4782,11 +4728,11 @@
         <v>96</v>
       </c>
       <c r="G31" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H31" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B31&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H13Y_Quote</v>
       </c>
       <c r="I31" s="115">
@@ -4794,16 +4740,16 @@
       </c>
       <c r="J31" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H31,1,B31,Calendar,D31,E31,F31,G31,I31,C31,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022d#0005</v>
+        <v>obj_00166#0001</v>
       </c>
       <c r="K31" s="48"/>
       <c r="L31" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M31" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00232#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00165#0001</v>
       </c>
       <c r="N31" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M31,Trigger),"--")</f>
@@ -4811,7 +4757,7 @@
       </c>
       <c r="O31" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M31,Trigger),"--")</f>
-        <v>2.3700000000000002E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="P31" s="90" t="b">
         <v>1</v>
@@ -4824,14 +4770,14 @@
       </c>
       <c r="S31" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M31,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T31" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M31,Trigger),"--")</f>
-        <v>47660</v>
+        <v>47763</v>
       </c>
       <c r="V31" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W31" s="3" t="e">
@@ -4857,7 +4803,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W31,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC31" s="132" t="e">
+      <c r="AC31" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD31" s="126"/>
@@ -4883,11 +4829,11 @@
         <v>96</v>
       </c>
       <c r="G32" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H32" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B32&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H14Y_Quote</v>
       </c>
       <c r="I32" s="115">
@@ -4895,16 +4841,16 @@
       </c>
       <c r="J32" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H32,1,B32,Calendar,D32,E32,F32,G32,I32,C32,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022c#0005</v>
+        <v>obj_00155#0001</v>
       </c>
       <c r="K32" s="48"/>
       <c r="L32" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M32" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_0022a#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00154#0001</v>
       </c>
       <c r="N32" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M32,Trigger),"--")</f>
@@ -4925,14 +4871,14 @@
       </c>
       <c r="S32" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M32,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T32" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M32,Trigger),"--")</f>
-        <v>48025</v>
+        <v>48127</v>
       </c>
       <c r="V32" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W32" s="3" t="e">
@@ -4958,7 +4904,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W32,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC32" s="132" t="e">
+      <c r="AC32" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD32" s="126"/>
@@ -4983,11 +4929,11 @@
         <v>96</v>
       </c>
       <c r="G33" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H33" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B33&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H15Y_Quote</v>
       </c>
       <c r="I33" s="115">
@@ -4995,16 +4941,16 @@
       </c>
       <c r="J33" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H33,1,B33,Calendar,D33,E33,F33,G33,I33,C33,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00232#0005</v>
+        <v>obj_00165#0001</v>
       </c>
       <c r="K33" s="48"/>
       <c r="L33" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M33" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_0021d#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00164#0001</v>
       </c>
       <c r="N33" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M33,Trigger),"--")</f>
@@ -5025,14 +4971,14 @@
       </c>
       <c r="S33" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M33,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T33" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M33,Trigger),"--")</f>
-        <v>48393</v>
+        <v>48492</v>
       </c>
       <c r="V33" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W33" s="3" t="e">
@@ -5058,7 +5004,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W33,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC33" s="132" t="e">
+      <c r="AC33" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD33" s="126"/>
@@ -5083,11 +5029,11 @@
         <v>96</v>
       </c>
       <c r="G34" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H34" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B34&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H16Y_Quote</v>
       </c>
       <c r="I34" s="115">
@@ -5095,16 +5041,16 @@
       </c>
       <c r="J34" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H34,1,B34,Calendar,D34,E34,F34,G34,I34,C34,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022a#0005</v>
+        <v>obj_00154#0001</v>
       </c>
       <c r="K34" s="48"/>
       <c r="L34" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M34" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00226#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00153#0001</v>
       </c>
       <c r="N34" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M34,Trigger),"--")</f>
@@ -5125,14 +5071,14 @@
       </c>
       <c r="S34" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M34,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T34" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M34,Trigger),"--")</f>
-        <v>48757</v>
+        <v>48857</v>
       </c>
       <c r="V34" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W34" s="3" t="e">
@@ -5158,7 +5104,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W34,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC34" s="132" t="e">
+      <c r="AC34" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD34" s="126"/>
@@ -5183,11 +5129,11 @@
         <v>96</v>
       </c>
       <c r="G35" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H35" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B35&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H17Y_Quote</v>
       </c>
       <c r="I35" s="115">
@@ -5195,16 +5141,16 @@
       </c>
       <c r="J35" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H35,1,B35,Calendar,D35,E35,F35,G35,I35,C35,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021d#0005</v>
+        <v>obj_00164#0001</v>
       </c>
       <c r="K35" s="48"/>
       <c r="L35" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M35" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00221#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00163#0001</v>
       </c>
       <c r="N35" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M35,Trigger),"--")</f>
@@ -5225,14 +5171,14 @@
       </c>
       <c r="S35" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M35,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T35" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M35,Trigger),"--")</f>
-        <v>49121</v>
+        <v>49222</v>
       </c>
       <c r="V35" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W35" s="3" t="e">
@@ -5258,7 +5204,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W35,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC35" s="132" t="e">
+      <c r="AC35" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD35" s="126"/>
@@ -5283,11 +5229,11 @@
         <v>96</v>
       </c>
       <c r="G36" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H36" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B36&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H18Y_Quote</v>
       </c>
       <c r="I36" s="115">
@@ -5295,16 +5241,16 @@
       </c>
       <c r="J36" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H36,1,B36,Calendar,D36,E36,F36,G36,I36,C36,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00226#0005</v>
+        <v>obj_00153#0001</v>
       </c>
       <c r="K36" s="48"/>
       <c r="L36" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M36" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00235#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00152#0001</v>
       </c>
       <c r="N36" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M36,Trigger),"--")</f>
@@ -5312,7 +5258,7 @@
       </c>
       <c r="O36" s="91">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M36,Trigger),"--")</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="P36" s="90" t="b">
         <v>1</v>
@@ -5325,14 +5271,14 @@
       </c>
       <c r="S36" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M36,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T36" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M36,Trigger),"--")</f>
-        <v>49486</v>
+        <v>49587</v>
       </c>
       <c r="V36" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W36" s="3" t="e">
@@ -5358,7 +5304,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W36,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC36" s="132" t="e">
+      <c r="AC36" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD36" s="126"/>
@@ -5383,11 +5329,11 @@
         <v>96</v>
       </c>
       <c r="G37" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H37" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B37&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H19Y_Quote</v>
       </c>
       <c r="I37" s="115">
@@ -5395,16 +5341,16 @@
       </c>
       <c r="J37" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H37,1,B37,Calendar,D37,E37,F37,G37,I37,C37,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00221#0005</v>
+        <v>obj_00163#0001</v>
       </c>
       <c r="K37" s="48"/>
       <c r="L37" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M37" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00237#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00161#0001</v>
       </c>
       <c r="N37" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M37,Trigger),"--")</f>
@@ -5425,14 +5371,14 @@
       </c>
       <c r="S37" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M37,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T37" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M37,Trigger),"--")</f>
-        <v>51313</v>
+        <v>51414</v>
       </c>
       <c r="V37" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W37" s="3" t="e">
@@ -5458,7 +5404,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W37,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC37" s="132" t="e">
+      <c r="AC37" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD37" s="126"/>
@@ -5483,11 +5429,11 @@
         <v>96</v>
       </c>
       <c r="G38" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H38" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B38&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H20Y_Quote</v>
       </c>
       <c r="I38" s="115">
@@ -5495,16 +5441,16 @@
       </c>
       <c r="J38" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H38,1,B38,Calendar,D38,E38,F38,G38,I38,C38,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00235#0005</v>
+        <v>obj_00152#0001</v>
       </c>
       <c r="K38" s="48"/>
       <c r="L38" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M38" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00234#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00151#0001</v>
       </c>
       <c r="N38" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M38,Trigger),"--")</f>
@@ -5525,14 +5471,14 @@
       </c>
       <c r="S38" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M38,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T38" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M38,Trigger),"--")</f>
-        <v>53139</v>
+        <v>53240</v>
       </c>
       <c r="V38" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W38" s="3" t="e">
@@ -5558,7 +5504,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W38,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC38" s="132" t="e">
+      <c r="AC38" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD38" s="126"/>
@@ -5583,11 +5529,11 @@
         <v>96</v>
       </c>
       <c r="G39" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H39" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B39&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H25Y_Quote</v>
       </c>
       <c r="I39" s="115">
@@ -5595,15 +5541,15 @@
       </c>
       <c r="J39" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H39,1,B39,Calendar,D39,E39,F39,G39,I39,C39,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00237#0005</v>
+        <v>obj_00161#0001</v>
       </c>
       <c r="L39" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M39" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_0022e#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00160#0001</v>
       </c>
       <c r="N39" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M39,Trigger),"--")</f>
@@ -5624,14 +5570,14 @@
       </c>
       <c r="S39" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M39,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T39" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M39,Trigger),"--")</f>
-        <v>54966</v>
+        <v>55066</v>
       </c>
       <c r="V39" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W39" s="3" t="e">
@@ -5657,7 +5603,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W39,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC39" s="132" t="e">
+      <c r="AC39" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD39" s="126"/>
@@ -5682,11 +5628,11 @@
         <v>96</v>
       </c>
       <c r="G40" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H40" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B40&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H30Y_Quote</v>
       </c>
       <c r="I40" s="115">
@@ -5694,15 +5640,15 @@
       </c>
       <c r="J40" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H40,1,B40,Calendar,D40,E40,F40,G40,I40,C40,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00234#0005</v>
+        <v>obj_00151#0001</v>
       </c>
       <c r="L40" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M40" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00229#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_00150#0001</v>
       </c>
       <c r="N40" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M40,Trigger),"--")</f>
@@ -5723,14 +5669,14 @@
       </c>
       <c r="S40" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M40,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T40" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M40,Trigger),"--")</f>
-        <v>56793</v>
+        <v>56892</v>
       </c>
       <c r="V40" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W40" s="3" t="e">
@@ -5756,7 +5702,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W40,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC40" s="132" t="e">
+      <c r="AC40" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD40" s="126"/>
@@ -5781,11 +5727,11 @@
         <v>96</v>
       </c>
       <c r="G41" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H41" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B41&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H35Y_Quote</v>
       </c>
       <c r="I41" s="115">
@@ -5793,15 +5739,15 @@
       </c>
       <c r="J41" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H41,1,B41,Calendar,D41,E41,F41,G41,I41,C41,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022e#0005</v>
+        <v>obj_00160#0001</v>
       </c>
       <c r="L41" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Sw</v>
       </c>
       <c r="M41" s="87" t="str">
-        <f t="shared" si="6"/>
-        <v>obj_00233#0005</v>
+        <f t="shared" si="7"/>
+        <v>obj_0015f#0001</v>
       </c>
       <c r="N41" s="121" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M41,Trigger),"--")</f>
@@ -5822,14 +5768,14 @@
       </c>
       <c r="S41" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M41,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T41" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M41,Trigger),"--")</f>
-        <v>60444</v>
+        <v>60545</v>
       </c>
       <c r="V41" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W41" s="3" t="e">
@@ -5855,7 +5801,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W41,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC41" s="132" t="e">
+      <c r="AC41" s="130" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD41" s="126"/>
@@ -5880,11 +5826,11 @@
         <v>96</v>
       </c>
       <c r="G42" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H42" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B42&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H40Y_Quote</v>
       </c>
       <c r="I42" s="115">
@@ -5892,7 +5838,7 @@
       </c>
       <c r="J42" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H42,1,B42,Calendar,D42,E42,F42,G42,I42,C42,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00229#0005</v>
+        <v>obj_00150#0001</v>
       </c>
       <c r="L42" s="10" t="str">
         <f>A44</f>
@@ -5900,7 +5846,7 @@
       </c>
       <c r="M42" s="88" t="str">
         <f>IF(ISBLANK(J44),"--",J44)</f>
-        <v>obj_0021e#0005</v>
+        <v>obj_0014f#0001</v>
       </c>
       <c r="N42" s="122" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M42,Trigger),"--")</f>
@@ -5921,14 +5867,14 @@
       </c>
       <c r="S42" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M42,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42282</v>
       </c>
       <c r="T42" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M42,Trigger),"--")</f>
-        <v>64096</v>
+        <v>64199</v>
       </c>
       <c r="V42" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W42" s="5" t="e">
@@ -5954,7 +5900,7 @@
         <f>IFERROR(_xll.qlRateHelperPillarDate(W42,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC42" s="133" t="e">
+      <c r="AC42" s="131" t="e">
         <v>#N/A</v>
       </c>
       <c r="AD42" s="126"/>
@@ -5979,11 +5925,11 @@
         <v>96</v>
       </c>
       <c r="G43" s="59" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H43" s="57" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B43&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H50Y_Quote</v>
       </c>
       <c r="I43" s="115">
@@ -5991,7 +5937,7 @@
       </c>
       <c r="J43" s="61" t="str">
         <f>_xll.qlSwapRateHelper2(,H43,1,B43,Calendar,D43,E43,F43,G43,I43,C43,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00233#0005</v>
+        <v>obj_0015f#0001</v>
       </c>
       <c r="AD43" s="126"/>
     </row>
@@ -6015,19 +5961,19 @@
         <v>96</v>
       </c>
       <c r="G44" s="6" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$12,"H","M")</f>
+        <f t="shared" si="8"/>
         <v>HkdHibor3M</v>
       </c>
       <c r="H44" s="1" t="str">
-        <f>Currency&amp;$G$12&amp;$H$12&amp;$B44&amp;"_Quote"</f>
+        <f t="shared" si="9"/>
         <v>HKDQM3H60Y_Quote</v>
       </c>
-      <c r="I44" s="130">
+      <c r="I44" s="128">
         <v>0</v>
       </c>
       <c r="J44" s="2" t="str">
         <f>_xll.qlSwapRateHelper2(,H44,1,B44,Calendar,D44,E44,F44,G44,I44,C44,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021e#0005</v>
+        <v>obj_0014f#0001</v>
       </c>
       <c r="AD44" s="126"/>
     </row>
